--- a/Documentation/KSP Controller Design Data.xlsx
+++ b/Documentation/KSP Controller Design Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="11310" windowHeight="5430" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="11310" windowHeight="5430" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="447">
   <si>
     <t>M</t>
   </si>
@@ -1430,6 +1430,9 @@
   </si>
   <si>
     <t>not yet supported, krpc issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added an explicit light off </t>
   </si>
 </sst>
 </file>
@@ -1713,8 +1716,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142046008"/>
-        <c:axId val="142045616"/>
+        <c:axId val="142205784"/>
+        <c:axId val="142202256"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1797,11 +1800,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142048752"/>
-        <c:axId val="142049928"/>
+        <c:axId val="142206176"/>
+        <c:axId val="142203432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142046008"/>
+        <c:axId val="142205784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,12 +1861,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142045616"/>
+        <c:crossAx val="142202256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142045616"/>
+        <c:axId val="142202256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1920,12 +1923,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142046008"/>
+        <c:crossAx val="142205784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142049928"/>
+        <c:axId val="142203432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,12 +1971,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142048752"/>
+        <c:crossAx val="142206176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142048752"/>
+        <c:axId val="142206176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1983,7 +1986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142049928"/>
+        <c:crossAx val="142203432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2079,6 +2082,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5264,11 +5268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142050320"/>
-        <c:axId val="142051104"/>
+        <c:axId val="142201080"/>
+        <c:axId val="142204216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142050320"/>
+        <c:axId val="142201080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5325,12 +5329,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142051104"/>
+        <c:crossAx val="142204216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142051104"/>
+        <c:axId val="142204216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5387,7 +5391,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142050320"/>
+        <c:crossAx val="142201080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5401,6 +5405,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8089,7 +8094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -12655,9 +12660,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13631,7 +13636,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -13648,7 +13653,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -13662,7 +13667,10 @@
         <v>400</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>412</v>
+        <v>277</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/KSP Controller Design Data.xlsx
+++ b/Documentation/KSP Controller Design Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="11310" windowHeight="5430" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="11310" windowHeight="5430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -1422,17 +1422,17 @@
     <t>All errors fixed, writes to the GUI message area</t>
   </si>
   <si>
-    <t>orbital selection constantly sets chase for planes??
+    <t>Structure done but needs naming convention clean up, review of globals etc</t>
+  </si>
+  <si>
+    <t>not yet supported, krpc issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added an explicit light off </t>
+  </si>
+  <si>
+    <t>orbital selection constantly sets chase for planes, this is due to a lack of velocity data, need to filter this
 default distance only works after some time, needs krpc fix. Hack installed to hold cam distance for timer</t>
-  </si>
-  <si>
-    <t>Structure done but needs naming convention clean up, review of globals etc</t>
-  </si>
-  <si>
-    <t>not yet supported, krpc issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Added an explicit light off </t>
   </si>
 </sst>
 </file>
@@ -1716,8 +1716,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142205784"/>
-        <c:axId val="142202256"/>
+        <c:axId val="139439016"/>
+        <c:axId val="140211336"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1800,11 +1800,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142206176"/>
-        <c:axId val="142203432"/>
+        <c:axId val="140211728"/>
+        <c:axId val="140212904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142205784"/>
+        <c:axId val="139439016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,12 +1861,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142202256"/>
+        <c:crossAx val="140211336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142202256"/>
+        <c:axId val="140211336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,12 +1923,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142205784"/>
+        <c:crossAx val="139439016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142203432"/>
+        <c:axId val="140212904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,12 +1971,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142206176"/>
+        <c:crossAx val="140211728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142206176"/>
+        <c:axId val="140211728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1986,7 +1986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142203432"/>
+        <c:crossAx val="140212904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2082,7 +2082,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5268,11 +5267,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142201080"/>
-        <c:axId val="142204216"/>
+        <c:axId val="140213296"/>
+        <c:axId val="141764848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142201080"/>
+        <c:axId val="140213296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5329,12 +5328,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142204216"/>
+        <c:crossAx val="141764848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142204216"/>
+        <c:axId val="141764848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5391,7 +5390,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142201080"/>
+        <c:crossAx val="140213296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5405,7 +5404,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7967,7 +7965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -12660,9 +12658,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13153,7 +13151,7 @@
         <v>409</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -13173,10 +13171,10 @@
         <v>412</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -13193,7 +13191,7 @@
         <v>409</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13653,7 +13651,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -13670,7 +13668,7 @@
         <v>277</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/KSP Controller Design Data.xlsx
+++ b/Documentation/KSP Controller Design Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="11310" windowHeight="5430" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="11310" windowHeight="5430" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="448">
   <si>
     <t>M</t>
   </si>
@@ -1433,6 +1433,9 @@
   <si>
     <t>orbital selection constantly sets chase for planes, this is due to a lack of velocity data, need to filter this
 default distance only works after some time, needs krpc fix. Hack installed to hold cam distance for timer</t>
+  </si>
+  <si>
+    <t>fan speed</t>
   </si>
 </sst>
 </file>
@@ -1716,8 +1719,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="139439016"/>
-        <c:axId val="140211336"/>
+        <c:axId val="140198872"/>
+        <c:axId val="140200832"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1800,11 +1803,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140211728"/>
-        <c:axId val="140212904"/>
+        <c:axId val="305498080"/>
+        <c:axId val="140195344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="139439016"/>
+        <c:axId val="140198872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,12 +1864,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140211336"/>
+        <c:crossAx val="140200832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140211336"/>
+        <c:axId val="140200832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,12 +1926,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139439016"/>
+        <c:crossAx val="140198872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140212904"/>
+        <c:axId val="140195344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,12 +1974,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140211728"/>
+        <c:crossAx val="305498080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140211728"/>
+        <c:axId val="305498080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1986,7 +1989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140212904"/>
+        <c:crossAx val="140195344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5267,11 +5270,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140213296"/>
-        <c:axId val="141764848"/>
+        <c:axId val="305498472"/>
+        <c:axId val="305497688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140213296"/>
+        <c:axId val="305498472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5328,12 +5331,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141764848"/>
+        <c:crossAx val="305497688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141764848"/>
+        <c:axId val="305497688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5390,7 +5393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140213296"/>
+        <c:crossAx val="305498472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7965,7 +7968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -8092,8 +8095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V258"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="I16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9753,6 +9756,12 @@
       </c>
       <c r="C46" s="15" t="s">
         <v>288</v>
+      </c>
+      <c r="F46">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s">
+        <v>447</v>
       </c>
       <c r="T46">
         <v>43</v>

--- a/Documentation/KSP Controller Design Data.xlsx
+++ b/Documentation/KSP Controller Design Data.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="464">
   <si>
     <t>M</t>
   </si>
@@ -1085,84 +1085,18 @@
     <t>Fan PWM generates an annoying whine</t>
   </si>
   <si>
-    <t>Out</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>Mux 0 A</t>
-  </si>
-  <si>
-    <t>Mux 0 B</t>
-  </si>
-  <si>
-    <t>Mux 1 A</t>
-  </si>
-  <si>
-    <t>Mux 1 B</t>
-  </si>
-  <si>
-    <t>Mux 2 B</t>
-  </si>
-  <si>
-    <t>Mux 3 B</t>
-  </si>
-  <si>
     <t>8-10</t>
   </si>
   <si>
-    <t>Pins</t>
-  </si>
-  <si>
-    <t>Val</t>
-  </si>
-  <si>
-    <t>Mux 4 B</t>
-  </si>
-  <si>
     <t>D0</t>
   </si>
   <si>
     <t>Frame Time</t>
   </si>
   <si>
-    <t>MSg Structs</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
     <t>CMD</t>
   </si>
   <si>
@@ -1170,12 +1104,6 @@
   </si>
   <si>
     <t>Remove all magic numbers from Arduino Code</t>
-  </si>
-  <si>
-    <t>Left Lights</t>
-  </si>
-  <si>
-    <t>Right Lights</t>
   </si>
   <si>
     <t>Throttle 100%</t>
@@ -1435,7 +1363,128 @@
 default distance only works after some time, needs krpc fix. Hack installed to hold cam distance for timer</t>
   </si>
   <si>
-    <t>fan speed</t>
+    <t>Fan Speed</t>
+  </si>
+  <si>
+    <t>Voltage Sense</t>
+  </si>
+  <si>
+    <t>Temperature Sense</t>
+  </si>
+  <si>
+    <t>Dimmer Setting</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Digital Byte 0</t>
+  </si>
+  <si>
+    <t>Digital Byte 1</t>
+  </si>
+  <si>
+    <t>Digital Byte 2</t>
+  </si>
+  <si>
+    <t>Digital Byte 3</t>
+  </si>
+  <si>
+    <t>Digital Byte 4</t>
+  </si>
+  <si>
+    <t>Digital Byte 5</t>
+  </si>
+  <si>
+    <t>Digital Byte 6</t>
+  </si>
+  <si>
+    <t>Digital Byte 7</t>
+  </si>
+  <si>
+    <t>Digital Byte 8</t>
+  </si>
+  <si>
+    <t>Digital Byte 9</t>
+  </si>
+  <si>
+    <t>Digital Byte 10</t>
+  </si>
+  <si>
+    <t>Digital Byte 11</t>
+  </si>
+  <si>
+    <t>Mux 0 Bank A</t>
+  </si>
+  <si>
+    <t>Mux 0 Bank B</t>
+  </si>
+  <si>
+    <t>Mux 1 Bank A</t>
+  </si>
+  <si>
+    <t>Mux 1 Bank B</t>
+  </si>
+  <si>
+    <t>Mux 2 Bank B</t>
+  </si>
+  <si>
+    <t>Mux 3 Bank B</t>
+  </si>
+  <si>
+    <t>Mux 4 Bank B</t>
+  </si>
+  <si>
+    <t>Analogue 0</t>
+  </si>
+  <si>
+    <t>Analogue 1</t>
+  </si>
+  <si>
+    <t>Analogue 2</t>
+  </si>
+  <si>
+    <t>Analogue 3</t>
+  </si>
+  <si>
+    <t>Analogue 4</t>
+  </si>
+  <si>
+    <t>Analogue 5</t>
+  </si>
+  <si>
+    <t>Analogue 6</t>
+  </si>
+  <si>
+    <t>Analogue 7</t>
+  </si>
+  <si>
+    <t>Analogue 8</t>
+  </si>
+  <si>
+    <t>Analogue 9</t>
+  </si>
+  <si>
+    <t>b0 = request input data,  
+b1 = process outputs</t>
+  </si>
+  <si>
+    <t>Left Light Commands</t>
+  </si>
+  <si>
+    <t>Right Light Commands</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1525,11 +1574,185 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1571,6 +1794,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1719,8 +1958,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140198872"/>
-        <c:axId val="140200832"/>
+        <c:axId val="148434064"/>
+        <c:axId val="148426616"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1803,11 +2042,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="305498080"/>
-        <c:axId val="140195344"/>
+        <c:axId val="148430928"/>
+        <c:axId val="148430536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140198872"/>
+        <c:axId val="148434064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1864,12 +2103,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140200832"/>
+        <c:crossAx val="148426616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140200832"/>
+        <c:axId val="148426616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,12 +2165,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140198872"/>
+        <c:crossAx val="148434064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140195344"/>
+        <c:axId val="148430536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1974,12 +2213,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305498080"/>
+        <c:crossAx val="148430928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="305498080"/>
+        <c:axId val="148430928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,7 +2228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140195344"/>
+        <c:crossAx val="148430536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2085,6 +2324,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Dead Band</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2123,6 +2388,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pin Map'!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Input</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3694,6 +3970,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pin Map'!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Output</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -4493,367 +4780,367 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.99174406604747167</c:v>
+                  <c:v>-0.99019607843137258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.98348813209494335</c:v>
+                  <c:v>-0.98039215686274517</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.9752321981424148</c:v>
+                  <c:v>-0.97058823529411753</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.96697626418988647</c:v>
+                  <c:v>-0.96078431372549011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.95872033023735814</c:v>
+                  <c:v>-0.9509803921568627</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.9504643962848297</c:v>
+                  <c:v>-0.94117647058823528</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.94220846233230127</c:v>
+                  <c:v>-0.93137254901960786</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.93395252837977294</c:v>
+                  <c:v>-0.92156862745098045</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.92569659442724461</c:v>
+                  <c:v>-0.91176470588235303</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.91744066047471629</c:v>
+                  <c:v>-0.90196078431372562</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.90918472652218774</c:v>
+                  <c:v>-0.89215686274509787</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.90092879256965941</c:v>
+                  <c:v>-0.88235294117647045</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.89267285861713108</c:v>
+                  <c:v>-0.87254901960784303</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.88441692466460264</c:v>
+                  <c:v>-0.86274509803921562</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.87616099071207432</c:v>
+                  <c:v>-0.8529411764705882</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.86790505675954588</c:v>
+                  <c:v>-0.84313725490196079</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.85964912280701755</c:v>
+                  <c:v>-0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.85139318885448922</c:v>
+                  <c:v>-0.82352941176470595</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.84313725490196079</c:v>
+                  <c:v>-0.81372549019607832</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.83488132094943235</c:v>
+                  <c:v>-0.8039215686274509</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.82662538699690402</c:v>
+                  <c:v>-0.79411764705882348</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.81836945304437558</c:v>
+                  <c:v>-0.78431372549019607</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.81011351909184726</c:v>
+                  <c:v>-0.77450980392156865</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.80185758513931893</c:v>
+                  <c:v>-0.76470588235294124</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.79360165118679049</c:v>
+                  <c:v>-0.75490196078431382</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.78534571723426216</c:v>
+                  <c:v>-0.7450980392156864</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.77708978328173373</c:v>
+                  <c:v>-0.73529411764705865</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.7688338493292054</c:v>
+                  <c:v>-0.72549019607843124</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.76057791537667696</c:v>
+                  <c:v>-0.71568627450980382</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.75232198142414852</c:v>
+                  <c:v>-0.70588235294117641</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.7440660474716202</c:v>
+                  <c:v>-0.69607843137254899</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.73581011351909187</c:v>
+                  <c:v>-0.68627450980392157</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.72755417956656354</c:v>
+                  <c:v>-0.67647058823529416</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.7192982456140351</c:v>
+                  <c:v>-0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.71104231166150667</c:v>
+                  <c:v>-0.6568627450980391</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.70278637770897834</c:v>
+                  <c:v>-0.64705882352941169</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.6945304437564499</c:v>
+                  <c:v>-0.63725490196078427</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.68627450980392146</c:v>
+                  <c:v>-0.62745098039215685</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.67801857585139313</c:v>
+                  <c:v>-0.61764705882352933</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.66976264189886481</c:v>
+                  <c:v>-0.60784313725490191</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.66150670794633648</c:v>
+                  <c:v>-0.59803921568627449</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.65325077399380804</c:v>
+                  <c:v>-0.58823529411764708</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.6449948400412796</c:v>
+                  <c:v>-0.57843137254901955</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.63673890608875128</c:v>
+                  <c:v>-0.56862745098039214</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.62848297213622284</c:v>
+                  <c:v>-0.55882352941176461</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.62022703818369451</c:v>
+                  <c:v>-0.54901960784313719</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.61197110423116607</c:v>
+                  <c:v>-0.53921568627450978</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.60371517027863775</c:v>
+                  <c:v>-0.52941176470588236</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.59545923632610942</c:v>
+                  <c:v>-0.51960784313725494</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.58720330237358109</c:v>
+                  <c:v>-0.50980392156862753</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.57894736842105254</c:v>
+                  <c:v>-0.49999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.57069143446852422</c:v>
+                  <c:v>-0.49019607843137253</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.56243550051599578</c:v>
+                  <c:v>-0.48039215686274495</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.55417956656346745</c:v>
+                  <c:v>-0.47058823529411753</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.54592363261093901</c:v>
+                  <c:v>-0.46078431372549011</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.53766769865841069</c:v>
+                  <c:v>-0.4509803921568627</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.52941176470588236</c:v>
+                  <c:v>-0.44117647058823528</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.52115583075335403</c:v>
+                  <c:v>-0.43137254901960786</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.51289989680082559</c:v>
+                  <c:v>-0.42156862745098034</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.50464396284829727</c:v>
+                  <c:v>-0.41176470588235292</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.49638802889576877</c:v>
+                  <c:v>-0.40196078431372534</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.48813209494324045</c:v>
+                  <c:v>-0.39215686274509792</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.47987616099071206</c:v>
+                  <c:v>-0.38235294117647051</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.47162022703818374</c:v>
+                  <c:v>-0.37254901960784309</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.46336429308565541</c:v>
+                  <c:v>-0.36274509803921567</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.45510835913312692</c:v>
+                  <c:v>-0.35294117647058815</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.44685242518059859</c:v>
+                  <c:v>-0.34313725490196073</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.43859649122807021</c:v>
+                  <c:v>-0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.43034055727554188</c:v>
+                  <c:v>-0.3235294117647059</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.42208462332301339</c:v>
+                  <c:v>-0.31372549019607832</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.41382868937048506</c:v>
+                  <c:v>-0.3039215686274509</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.40557275541795668</c:v>
+                  <c:v>-0.29411764705882348</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.39731682146542835</c:v>
+                  <c:v>-0.28431372549019607</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.38906088751289986</c:v>
+                  <c:v>-0.27450980392156854</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.38080495356037153</c:v>
+                  <c:v>-0.26470588235294112</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.3725490196078432</c:v>
+                  <c:v>-0.25490196078431371</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.36429308565531482</c:v>
+                  <c:v>-0.24509803921568629</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.35603715170278638</c:v>
+                  <c:v>-0.23529411764705874</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.347781217750258</c:v>
+                  <c:v>-0.22549019607843132</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.33952528379772967</c:v>
+                  <c:v>-0.2156862745098039</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.33126934984520129</c:v>
+                  <c:v>-0.20588235294117649</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.32301341589267285</c:v>
+                  <c:v>-0.19607843137254893</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.31475748194014447</c:v>
+                  <c:v>-0.18627450980392152</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.30650154798761614</c:v>
+                  <c:v>-0.1764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.29824561403508776</c:v>
+                  <c:v>-0.16666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.28998968008255932</c:v>
+                  <c:v>-0.15686274509803913</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.28173374613003099</c:v>
+                  <c:v>-0.14705882352941171</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.27347781217750261</c:v>
+                  <c:v>-0.1372549019607843</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.26522187822497428</c:v>
+                  <c:v>-0.12745098039215688</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.25696594427244579</c:v>
+                  <c:v>-0.11764705882352934</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.24871001031991744</c:v>
+                  <c:v>-0.10784313725490192</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.24045407636738911</c:v>
+                  <c:v>-9.8039215686274508E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.23219814241486075</c:v>
+                  <c:v>-8.8235294117647092E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.22394220846233229</c:v>
+                  <c:v>-7.8431372549019537E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.21568627450980393</c:v>
+                  <c:v>-6.8627450980392121E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.20743034055727558</c:v>
+                  <c:v>-5.8823529411764705E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.19917440660474722</c:v>
+                  <c:v>-4.9019607843137289E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.19091847265221876</c:v>
+                  <c:v>-3.9215686274509734E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.1826625386996904</c:v>
+                  <c:v>-2.9411764705882318E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-0.17440660474716205</c:v>
+                  <c:v>-1.9607843137254902E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-0.16615067079463369</c:v>
+                  <c:v>-9.8039215686274855E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-0.15789473684210523</c:v>
+                  <c:v>6.9388939039072284E-17</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-0.14963880288957687</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-0.14138286893704854</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-0.13312693498452019</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-0.1248710010319917</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-0.11661506707946336</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-0.108359133126935</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-0.10010319917440665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-9.184726522187818E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-8.3591331269349825E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-7.5335397316821484E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-6.7079463364293129E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-5.8823529411764663E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-5.0567595459236309E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-4.2311661506707961E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-3.4055727554179606E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-2.579979360165114E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-1.7543859649122789E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-9.2879256965944391E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-1.0319917440660877E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>0</c:v>
@@ -4892,367 +5179,367 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.0319917440660877E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>9.2879256965944391E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1.7543859649122789E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.579979360165114E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3.4055727554179488E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>4.2311661506707843E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>5.0567595459236427E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>5.8823529411764774E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>6.7079463364293129E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>7.5335397316821484E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>8.3591331269349825E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>9.184726522187818E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.10010319917440653</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.10835913312693488</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.11661506707946347</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.12487100103199182</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.13312693498452019</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.14138286893704854</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.14963880288957687</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.15789473684210523</c:v>
+                  <c:v>-6.9388939039072284E-17</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.16615067079463358</c:v>
+                  <c:v>9.8039215686273468E-3</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.17440660474716194</c:v>
+                  <c:v>1.9607843137254763E-2</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.18266253869969051</c:v>
+                  <c:v>2.9411764705882457E-2</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.19091847265221887</c:v>
+                  <c:v>3.9215686274509873E-2</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.19917440660474722</c:v>
+                  <c:v>4.9019607843137289E-2</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.20743034055727558</c:v>
+                  <c:v>5.8823529411764705E-2</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.21568627450980393</c:v>
+                  <c:v>6.8627450980392121E-2</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.22394220846233229</c:v>
+                  <c:v>7.8431372549019537E-2</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.23219814241486061</c:v>
+                  <c:v>8.8235294117646954E-2</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.24045407636738897</c:v>
+                  <c:v>9.803921568627437E-2</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.24871001031991757</c:v>
+                  <c:v>0.10784313725490206</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.2569659442724459</c:v>
+                  <c:v>0.11764705882352948</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.26522187822497428</c:v>
+                  <c:v>0.12745098039215688</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.27347781217750261</c:v>
+                  <c:v>0.1372549019607843</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.28173374613003099</c:v>
+                  <c:v>0.14705882352941171</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.28998968008255932</c:v>
+                  <c:v>0.15686274509803913</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.29824561403508765</c:v>
+                  <c:v>0.16666666666666655</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.30650154798761603</c:v>
+                  <c:v>0.17647058823529396</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.31475748194014458</c:v>
+                  <c:v>0.18627450980392166</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.32301341589267296</c:v>
+                  <c:v>0.19607843137254907</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.33126934984520129</c:v>
+                  <c:v>0.20588235294117649</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.33952528379772967</c:v>
+                  <c:v>0.2156862745098039</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.347781217750258</c:v>
+                  <c:v>0.22549019607843132</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.35603715170278638</c:v>
+                  <c:v>0.23529411764705874</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.36429308565531471</c:v>
+                  <c:v>0.24509803921568615</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.37254901960784303</c:v>
+                  <c:v>0.25490196078431354</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.38080495356037164</c:v>
+                  <c:v>0.26470588235294124</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.38906088751289997</c:v>
+                  <c:v>0.27450980392156865</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.39731682146542835</c:v>
+                  <c:v>0.28431372549019607</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.40557275541795668</c:v>
+                  <c:v>0.29411764705882348</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.41382868937048506</c:v>
+                  <c:v>0.3039215686274509</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.42208462332301339</c:v>
+                  <c:v>0.31372549019607832</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.43034055727554177</c:v>
+                  <c:v>0.32352941176470573</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.4385964912280701</c:v>
+                  <c:v>0.33333333333333315</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.4468524251805987</c:v>
+                  <c:v>0.34313725490196084</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.45510835913312703</c:v>
+                  <c:v>0.35294117647058826</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.46336429308565541</c:v>
+                  <c:v>0.36274509803921567</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.47162022703818374</c:v>
+                  <c:v>0.37254901960784309</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.47987616099071206</c:v>
+                  <c:v>0.38235294117647051</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.48813209494324045</c:v>
+                  <c:v>0.39215686274509792</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.49638802889576877</c:v>
+                  <c:v>0.40196078431372534</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.50464396284829716</c:v>
+                  <c:v>0.41176470588235276</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.51289989680082571</c:v>
+                  <c:v>0.42156862745098045</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.52115583075335403</c:v>
+                  <c:v>0.43137254901960786</c:v>
                 </c:pt>
                 <c:pt idx="198">
+                  <c:v>0.44117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.4509803921568627</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.46078431372549011</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.47058823529411753</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.48039215686274495</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.49019607843137236</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.50980392156862753</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.51960784313725494</c:v>
+                </c:pt>
+                <c:pt idx="207">
                   <c:v>0.52941176470588236</c:v>
                 </c:pt>
-                <c:pt idx="199">
-                  <c:v>0.53766769865841069</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0.54592363261093901</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0.55417956656346745</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0.56243550051599578</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0.57069143446852411</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0.57894736842105265</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0.58720330237358109</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0.59545923632610942</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0.60371517027863775</c:v>
-                </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.61197110423116607</c:v>
+                  <c:v>0.53921568627450978</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.62022703818369451</c:v>
+                  <c:v>0.54901960784313719</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.62848297213622284</c:v>
+                  <c:v>0.55882352941176461</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.63673890608875117</c:v>
+                  <c:v>0.56862745098039202</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.64499484004127972</c:v>
+                  <c:v>0.57843137254901966</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.65325077399380804</c:v>
+                  <c:v>0.58823529411764708</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.66150670794633648</c:v>
+                  <c:v>0.59803921568627449</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.66976264189886481</c:v>
+                  <c:v>0.60784313725490191</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.67801857585139313</c:v>
+                  <c:v>0.61764705882352933</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.68627450980392146</c:v>
+                  <c:v>0.62745098039215685</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.6945304437564499</c:v>
+                  <c:v>0.63725490196078427</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.70278637770897823</c:v>
+                  <c:v>0.64705882352941169</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.71104231166150678</c:v>
+                  <c:v>0.65686274509803932</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.7192982456140351</c:v>
+                  <c:v>0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.72755417956656354</c:v>
+                  <c:v>0.67647058823529416</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.73581011351909187</c:v>
+                  <c:v>0.68627450980392157</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.7440660474716202</c:v>
+                  <c:v>0.69607843137254899</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.75232198142414852</c:v>
+                  <c:v>0.70588235294117641</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.76057791537667685</c:v>
+                  <c:v>0.71568627450980382</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.76883384932920529</c:v>
+                  <c:v>0.72549019607843124</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.77708978328173384</c:v>
+                  <c:v>0.73529411764705899</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.78534571723426216</c:v>
+                  <c:v>0.7450980392156864</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.79360165118679049</c:v>
+                  <c:v>0.75490196078431382</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.80185758513931893</c:v>
+                  <c:v>0.76470588235294124</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.81011351909184726</c:v>
+                  <c:v>0.77450980392156865</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.81836945304437558</c:v>
+                  <c:v>0.78431372549019607</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.82662538699690391</c:v>
+                  <c:v>0.79411764705882348</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.83488132094943224</c:v>
+                  <c:v>0.8039215686274509</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.8431372549019609</c:v>
+                  <c:v>0.81372549019607854</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.85139318885448922</c:v>
+                  <c:v>0.82352941176470595</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.85964912280701755</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.86790505675954588</c:v>
+                  <c:v>0.84313725490196079</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.87616099071207432</c:v>
+                  <c:v>0.8529411764705882</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.88441692466460264</c:v>
+                  <c:v>0.86274509803921562</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.89267285861713097</c:v>
+                  <c:v>0.87254901960784303</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.9009287925696593</c:v>
+                  <c:v>0.88235294117647045</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.90918472652218796</c:v>
+                  <c:v>0.8921568627450982</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.91744066047471629</c:v>
+                  <c:v>0.90196078431372562</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.92569659442724461</c:v>
+                  <c:v>0.91176470588235303</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.93395252837977294</c:v>
+                  <c:v>0.92156862745098045</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.94220846233230127</c:v>
+                  <c:v>0.93137254901960786</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.9504643962848297</c:v>
+                  <c:v>0.94117647058823528</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.95872033023735803</c:v>
+                  <c:v>0.9509803921568627</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.96697626418988636</c:v>
+                  <c:v>0.96078431372549011</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.97523219814241491</c:v>
+                  <c:v>0.97058823529411775</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.98348813209494335</c:v>
+                  <c:v>0.98039215686274517</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.99174406604747167</c:v>
+                  <c:v>0.99019607843137258</c:v>
                 </c:pt>
                 <c:pt idx="255">
                   <c:v>1</c:v>
@@ -5270,11 +5557,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="305498472"/>
-        <c:axId val="305497688"/>
+        <c:axId val="211197432"/>
+        <c:axId val="211198608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="305498472"/>
+        <c:axId val="211197432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5331,12 +5618,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305497688"/>
+        <c:crossAx val="211198608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="305497688"/>
+        <c:axId val="211198608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5393,7 +5680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305498472"/>
+        <c:crossAx val="211197432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5407,6 +5694,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6589,16 +6877,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>750570</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>842010</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>407670</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6619,16 +6907,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>24765</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>24765</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>537210</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8028,7 +8316,7 @@
         <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -8095,8 +8383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8104,6 +8392,7 @@
     <col min="2" max="2" width="11.1015625" customWidth="1"/>
     <col min="3" max="3" width="13.47265625" customWidth="1"/>
     <col min="4" max="4" width="17.89453125" customWidth="1"/>
+    <col min="7" max="7" width="11.20703125" customWidth="1"/>
     <col min="8" max="8" width="13.1015625" customWidth="1"/>
     <col min="12" max="13" width="11.68359375" customWidth="1"/>
     <col min="14" max="14" width="11.47265625" customWidth="1"/>
@@ -8155,6 +8444,12 @@
       <c r="P2">
         <v>4</v>
       </c>
+      <c r="U2" t="s">
+        <v>462</v>
+      </c>
+      <c r="V2" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
@@ -8201,7 +8496,7 @@
         <v>-1</v>
       </c>
       <c r="V3">
-        <f>IF(ABS(U3)&lt;0.05,0,(U3-(ABS(U3)/U3*0.05))/(1-0.05))</f>
+        <f>IF(ABS(U3)&lt;0.2,0,(U3-(ABS(U3)/U3*0.2))/(1-0.2))</f>
         <v>-1</v>
       </c>
     </row>
@@ -8250,8 +8545,8 @@
         <v>-0.99215686274509807</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V67" si="1">IF(ABS(U4)&lt;0.05,0,(U4-(ABS(U4)/U4*0.05))/(1-0.05))</f>
-        <v>-0.99174406604747167</v>
+        <f t="shared" ref="V4:V67" si="1">IF(ABS(U4)&lt;0.2,0,(U4-(ABS(U4)/U4*0.2))/(1-0.2))</f>
+        <v>-0.99019607843137258</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8297,7 +8592,7 @@
       </c>
       <c r="V5">
         <f t="shared" si="1"/>
-        <v>-0.98348813209494335</v>
+        <v>-0.98039215686274517</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8343,7 +8638,7 @@
       </c>
       <c r="V6">
         <f t="shared" si="1"/>
-        <v>-0.9752321981424148</v>
+        <v>-0.97058823529411753</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8389,7 +8684,7 @@
       </c>
       <c r="V7">
         <f t="shared" si="1"/>
-        <v>-0.96697626418988647</v>
+        <v>-0.96078431372549011</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8435,7 +8730,7 @@
       </c>
       <c r="V8">
         <f t="shared" si="1"/>
-        <v>-0.95872033023735814</v>
+        <v>-0.9509803921568627</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8484,7 +8779,7 @@
       </c>
       <c r="V9">
         <f t="shared" si="1"/>
-        <v>-0.9504643962848297</v>
+        <v>-0.94117647058823528</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8524,7 +8819,7 @@
       </c>
       <c r="V10">
         <f t="shared" si="1"/>
-        <v>-0.94220846233230127</v>
+        <v>-0.93137254901960786</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8573,7 +8868,7 @@
       </c>
       <c r="V11">
         <f t="shared" si="1"/>
-        <v>-0.93395252837977294</v>
+        <v>-0.92156862745098045</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8622,7 +8917,7 @@
       </c>
       <c r="V12">
         <f t="shared" si="1"/>
-        <v>-0.92569659442724461</v>
+        <v>-0.91176470588235303</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8668,7 +8963,7 @@
       </c>
       <c r="V13">
         <f t="shared" si="1"/>
-        <v>-0.91744066047471629</v>
+        <v>-0.90196078431372562</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8688,7 +8983,7 @@
         <v>236</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>293</v>
@@ -8708,7 +9003,7 @@
       </c>
       <c r="V14">
         <f t="shared" si="1"/>
-        <v>-0.90918472652218774</v>
+        <v>-0.89215686274509787</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8748,7 +9043,7 @@
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
-        <v>-0.90092879256965941</v>
+        <v>-0.88235294117647045</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8788,7 +9083,7 @@
       </c>
       <c r="V16">
         <f t="shared" si="1"/>
-        <v>-0.89267285861713108</v>
+        <v>-0.87254901960784303</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8828,7 +9123,7 @@
       </c>
       <c r="V17">
         <f t="shared" si="1"/>
-        <v>-0.88441692466460264</v>
+        <v>-0.86274509803921562</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8865,7 +9160,7 @@
       </c>
       <c r="V18">
         <f t="shared" si="1"/>
-        <v>-0.87616099071207432</v>
+        <v>-0.8529411764705882</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8881,16 +9176,13 @@
       </c>
       <c r="V19">
         <f t="shared" si="1"/>
-        <v>-0.86790505675954588</v>
+        <v>-0.84313725490196079</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="F20" t="s">
-        <v>358</v>
-      </c>
       <c r="T20">
         <v>17</v>
       </c>
@@ -8900,22 +9192,13 @@
       </c>
       <c r="V20">
         <f t="shared" si="1"/>
-        <v>-0.85964912280701755</v>
+        <v>-0.83333333333333337</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="F21" t="s">
-        <v>334</v>
-      </c>
-      <c r="G21" t="s">
-        <v>354</v>
-      </c>
-      <c r="H21" t="s">
-        <v>353</v>
-      </c>
       <c r="T21">
         <v>18</v>
       </c>
@@ -8925,22 +9208,13 @@
       </c>
       <c r="V21">
         <f t="shared" si="1"/>
-        <v>-0.85139318885448922</v>
+        <v>-0.82352941176470595</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>272</v>
-      </c>
-      <c r="H22" t="s">
-        <v>379</v>
-      </c>
       <c r="L22" t="s">
         <v>324</v>
       </c>
@@ -8968,7 +9242,7 @@
       </c>
       <c r="V22">
         <f t="shared" si="1"/>
-        <v>-0.84313725490196079</v>
+        <v>-0.81372549019607832</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8981,15 +9255,6 @@
       <c r="C23" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>356</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>352</v>
-      </c>
       <c r="L23">
         <v>510</v>
       </c>
@@ -9024,7 +9289,7 @@
       </c>
       <c r="V23">
         <f t="shared" si="1"/>
-        <v>-0.83488132094943235</v>
+        <v>-0.8039215686274509</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9037,15 +9302,6 @@
       <c r="C24" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>335</v>
-      </c>
-      <c r="H24" t="s">
-        <v>372</v>
-      </c>
       <c r="L24">
         <v>625</v>
       </c>
@@ -9080,7 +9336,7 @@
       </c>
       <c r="V24">
         <f t="shared" si="1"/>
-        <v>-0.82662538699690402</v>
+        <v>-0.79411764705882348</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9093,15 +9349,6 @@
       <c r="C25" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25" t="s">
-        <v>336</v>
-      </c>
-      <c r="H25" t="s">
-        <v>373</v>
-      </c>
       <c r="M25">
         <v>158</v>
       </c>
@@ -9114,7 +9361,7 @@
       </c>
       <c r="V25">
         <f t="shared" si="1"/>
-        <v>-0.81836945304437558</v>
+        <v>-0.78431372549019607</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9127,15 +9374,6 @@
       <c r="C26" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26" t="s">
-        <v>337</v>
-      </c>
-      <c r="H26" t="s">
-        <v>374</v>
-      </c>
       <c r="N26" t="s">
         <v>0</v>
       </c>
@@ -9155,7 +9393,7 @@
       </c>
       <c r="V26">
         <f t="shared" si="1"/>
-        <v>-0.81011351909184726</v>
+        <v>-0.77450980392156865</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9168,15 +9406,6 @@
       <c r="C27" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>338</v>
-      </c>
-      <c r="H27" t="s">
-        <v>375</v>
-      </c>
       <c r="L27" t="s">
         <v>326</v>
       </c>
@@ -9197,7 +9426,7 @@
       </c>
       <c r="V27">
         <f t="shared" si="1"/>
-        <v>-0.80185758513931893</v>
+        <v>-0.76470588235294124</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9210,15 +9439,6 @@
       <c r="C28" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="F28">
-        <v>6</v>
-      </c>
-      <c r="G28" t="s">
-        <v>339</v>
-      </c>
-      <c r="H28" t="s">
-        <v>346</v>
-      </c>
       <c r="L28" t="s">
         <v>329</v>
       </c>
@@ -9239,7 +9459,7 @@
       </c>
       <c r="V28">
         <f t="shared" si="1"/>
-        <v>-0.79360165118679049</v>
+        <v>-0.75490196078431382</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9252,15 +9472,6 @@
       <c r="C29" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="F29">
-        <v>7</v>
-      </c>
-      <c r="G29" t="s">
-        <v>340</v>
-      </c>
-      <c r="H29" t="s">
-        <v>347</v>
-      </c>
       <c r="T29">
         <v>26</v>
       </c>
@@ -9270,7 +9481,7 @@
       </c>
       <c r="V29">
         <f t="shared" si="1"/>
-        <v>-0.78534571723426216</v>
+        <v>-0.7450980392156864</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9283,15 +9494,6 @@
       <c r="C30" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="F30">
-        <v>8</v>
-      </c>
-      <c r="G30" t="s">
-        <v>341</v>
-      </c>
-      <c r="H30" t="s">
-        <v>348</v>
-      </c>
       <c r="N30">
         <v>137</v>
       </c>
@@ -9312,7 +9514,7 @@
       </c>
       <c r="V30">
         <f t="shared" si="1"/>
-        <v>-0.77708978328173373</v>
+        <v>-0.73529411764705865</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9325,15 +9527,6 @@
       <c r="C31" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="F31">
-        <v>9</v>
-      </c>
-      <c r="G31" t="s">
-        <v>342</v>
-      </c>
-      <c r="H31" t="s">
-        <v>349</v>
-      </c>
       <c r="T31">
         <v>28</v>
       </c>
@@ -9343,7 +9536,7 @@
       </c>
       <c r="V31">
         <f t="shared" si="1"/>
-        <v>-0.7688338493292054</v>
+        <v>-0.72549019607843124</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9356,15 +9549,6 @@
       <c r="C32" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="F32">
-        <v>10</v>
-      </c>
-      <c r="G32" t="s">
-        <v>343</v>
-      </c>
-      <c r="H32" t="s">
-        <v>350</v>
-      </c>
       <c r="T32">
         <v>29</v>
       </c>
@@ -9374,10 +9558,10 @@
       </c>
       <c r="V32">
         <f t="shared" si="1"/>
-        <v>-0.76057791537667696</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.71568627450980382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33">
         <v>30</v>
       </c>
@@ -9386,15 +9570,6 @@
       </c>
       <c r="C33" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="F33">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>344</v>
-      </c>
-      <c r="H33" t="s">
-        <v>351</v>
       </c>
       <c r="T33">
         <v>30</v>
@@ -9405,10 +9580,10 @@
       </c>
       <c r="V33">
         <f t="shared" si="1"/>
-        <v>-0.75232198142414852</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.70588235294117641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34">
         <v>31</v>
       </c>
@@ -9418,14 +9593,23 @@
       <c r="C34" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="F34">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>345</v>
-      </c>
-      <c r="H34" t="s">
-        <v>355</v>
+      <c r="L34" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="M34" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="N34" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="O34" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="P34" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q34" s="35" t="s">
+        <v>427</v>
       </c>
       <c r="T34">
         <v>31</v>
@@ -9436,7 +9620,7 @@
       </c>
       <c r="V34">
         <f t="shared" si="1"/>
-        <v>-0.7440660474716202</v>
+        <v>-0.69607843137254899</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9449,11 +9633,23 @@
       <c r="C35" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="F35">
+      <c r="L35" s="30">
+        <v>0</v>
+      </c>
+      <c r="M35" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="N35" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="O35" s="30">
         <v>13</v>
       </c>
-      <c r="G35" t="s">
-        <v>147</v>
+      <c r="P35" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q35" s="32" t="s">
+        <v>424</v>
       </c>
       <c r="T35">
         <v>32</v>
@@ -9464,7 +9660,7 @@
       </c>
       <c r="V35">
         <f t="shared" si="1"/>
-        <v>-0.73581011351909187</v>
+        <v>-0.68627450980392157</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9477,11 +9673,23 @@
       <c r="C36" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="F36">
+      <c r="L36" s="24">
+        <v>1</v>
+      </c>
+      <c r="M36" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="N36" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="O36" s="24">
         <v>14</v>
       </c>
-      <c r="G36" t="s">
-        <v>148</v>
+      <c r="P36" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q36" s="25" t="s">
+        <v>425</v>
       </c>
       <c r="T36">
         <v>33</v>
@@ -9492,7 +9700,7 @@
       </c>
       <c r="V36">
         <f t="shared" si="1"/>
-        <v>-0.72755417956656354</v>
+        <v>-0.67647058823529416</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9505,11 +9713,23 @@
       <c r="C37" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F37">
+      <c r="L37" s="24">
+        <v>2</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="N37" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="O37" s="24">
         <v>15</v>
       </c>
-      <c r="G37" t="s">
-        <v>149</v>
+      <c r="P37" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q37" s="25" t="s">
+        <v>426</v>
       </c>
       <c r="T37">
         <v>34</v>
@@ -9520,7 +9740,7 @@
       </c>
       <c r="V37">
         <f t="shared" si="1"/>
-        <v>-0.7192982456140351</v>
+        <v>-0.66666666666666674</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9533,11 +9753,23 @@
       <c r="C38" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="F38">
+      <c r="L38" s="24">
+        <v>3</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="N38" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="O38" s="24">
         <v>16</v>
       </c>
-      <c r="G38" t="s">
-        <v>150</v>
+      <c r="P38" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q38" s="25" t="s">
+        <v>164</v>
       </c>
       <c r="T38">
         <v>35</v>
@@ -9548,7 +9780,7 @@
       </c>
       <c r="V38">
         <f t="shared" si="1"/>
-        <v>-0.71104231166150667</v>
+        <v>-0.6568627450980391</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9561,11 +9793,23 @@
       <c r="C39" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F39">
+      <c r="L39" s="24">
+        <v>4</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="N39" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="O39" s="24">
         <v>17</v>
       </c>
-      <c r="G39" t="s">
-        <v>151</v>
+      <c r="P39" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q39" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="T39">
         <v>36</v>
@@ -9576,7 +9820,7 @@
       </c>
       <c r="V39">
         <f t="shared" si="1"/>
-        <v>-0.70278637770897834</v>
+        <v>-0.64705882352941169</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9589,11 +9833,23 @@
       <c r="C40" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="F40">
+      <c r="L40" s="24">
+        <v>5</v>
+      </c>
+      <c r="M40" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="N40" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="O40" s="24">
         <v>18</v>
       </c>
-      <c r="G40" t="s">
-        <v>152</v>
+      <c r="P40" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q40" s="25" t="s">
+        <v>166</v>
       </c>
       <c r="T40">
         <v>37</v>
@@ -9604,7 +9860,7 @@
       </c>
       <c r="V40">
         <f t="shared" si="1"/>
-        <v>-0.6945304437564499</v>
+        <v>-0.63725490196078427</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9617,11 +9873,23 @@
       <c r="C41" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="F41">
+      <c r="L41" s="24">
+        <v>6</v>
+      </c>
+      <c r="M41" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="N41" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="O41" s="24">
         <v>19</v>
       </c>
-      <c r="G41" t="s">
-        <v>153</v>
+      <c r="P41" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q41" s="25" t="s">
+        <v>167</v>
       </c>
       <c r="T41">
         <v>38</v>
@@ -9632,7 +9900,7 @@
       </c>
       <c r="V41">
         <f t="shared" si="1"/>
-        <v>-0.68627450980392146</v>
+        <v>-0.62745098039215685</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9645,11 +9913,23 @@
       <c r="C42" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="F42">
+      <c r="L42" s="24">
+        <v>7</v>
+      </c>
+      <c r="M42" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="N42" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="O42" s="24">
         <v>20</v>
       </c>
-      <c r="G42" t="s">
-        <v>154</v>
+      <c r="P42" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q42" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="T42">
         <v>39</v>
@@ -9660,7 +9940,7 @@
       </c>
       <c r="V42">
         <f t="shared" si="1"/>
-        <v>-0.67801857585139313</v>
+        <v>-0.61764705882352933</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9673,11 +9953,23 @@
       <c r="C43" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F43">
+      <c r="L43" s="24">
+        <v>8</v>
+      </c>
+      <c r="M43" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="N43" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="O43" s="24">
         <v>21</v>
       </c>
-      <c r="G43" t="s">
-        <v>155</v>
+      <c r="P43" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q43" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="T43">
         <v>40</v>
@@ -9688,7 +9980,7 @@
       </c>
       <c r="V43">
         <f t="shared" si="1"/>
-        <v>-0.66976264189886481</v>
+        <v>-0.60784313725490191</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9701,11 +9993,23 @@
       <c r="C44" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="F44">
+      <c r="L44" s="24">
+        <v>9</v>
+      </c>
+      <c r="M44" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="N44" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="O44" s="24">
         <v>22</v>
       </c>
-      <c r="G44" t="s">
-        <v>156</v>
+      <c r="P44" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q44" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="T44">
         <v>41</v>
@@ -9716,7 +10020,7 @@
       </c>
       <c r="V44">
         <f t="shared" si="1"/>
-        <v>-0.66150670794633648</v>
+        <v>-0.59803921568627449</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9729,12 +10033,22 @@
       <c r="C45" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F45">
+      <c r="L45" s="24">
+        <v>10</v>
+      </c>
+      <c r="M45" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="N45" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="O45" s="24">
         <v>23</v>
       </c>
-      <c r="G45" t="s">
-        <v>357</v>
-      </c>
+      <c r="P45" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q45" s="25"/>
       <c r="T45">
         <v>42</v>
       </c>
@@ -9744,7 +10058,7 @@
       </c>
       <c r="V45">
         <f t="shared" si="1"/>
-        <v>-0.65325077399380804</v>
+        <v>-0.58823529411764708</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9757,12 +10071,22 @@
       <c r="C46" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="F46">
+      <c r="L46" s="24">
+        <v>11</v>
+      </c>
+      <c r="M46" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="N46" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="O46" s="24">
         <v>24</v>
       </c>
-      <c r="G46" t="s">
-        <v>447</v>
-      </c>
+      <c r="P46" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q46" s="25"/>
       <c r="T46">
         <v>43</v>
       </c>
@@ -9772,10 +10096,10 @@
       </c>
       <c r="V46">
         <f t="shared" si="1"/>
-        <v>-0.6449948400412796</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.57843137254901955</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47">
         <v>44</v>
       </c>
@@ -9785,15 +10109,18 @@
       <c r="C47" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="F47" t="s">
-        <v>359</v>
-      </c>
-      <c r="G47" t="s">
-        <v>354</v>
-      </c>
-      <c r="H47" t="s">
-        <v>353</v>
-      </c>
+      <c r="L47" s="27">
+        <v>12</v>
+      </c>
+      <c r="M47" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="N47" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="O47" s="27"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="29"/>
       <c r="T47">
         <v>44</v>
       </c>
@@ -9803,7 +10130,7 @@
       </c>
       <c r="V47">
         <f t="shared" si="1"/>
-        <v>-0.63673890608875128</v>
+        <v>-0.56862745098039214</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9816,12 +10143,6 @@
       <c r="C48" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
-        <v>360</v>
-      </c>
       <c r="T48">
         <v>45</v>
       </c>
@@ -9831,10 +10152,10 @@
       </c>
       <c r="V48">
         <f t="shared" si="1"/>
-        <v>-0.62848297213622284</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.55882352941176461</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A49">
         <v>46</v>
       </c>
@@ -9844,15 +10165,7 @@
       <c r="C49" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="s">
-        <v>356</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>363</v>
-      </c>
+      <c r="H49" s="19"/>
       <c r="T49">
         <v>46</v>
       </c>
@@ -9862,10 +10175,10 @@
       </c>
       <c r="V49">
         <f t="shared" si="1"/>
-        <v>-0.62022703818369451</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.54901960784313719</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A50">
         <v>47</v>
       </c>
@@ -9875,14 +10188,14 @@
       <c r="C50" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50" t="s">
-        <v>335</v>
-      </c>
-      <c r="H50" t="s">
-        <v>364</v>
+      <c r="L50" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="M50" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="N50" s="35" t="s">
+        <v>427</v>
       </c>
       <c r="T50">
         <v>47</v>
@@ -9893,10 +10206,10 @@
       </c>
       <c r="V50">
         <f t="shared" si="1"/>
-        <v>-0.61197110423116607</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.53921568627450978</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>48</v>
       </c>
@@ -9905,6 +10218,15 @@
       </c>
       <c r="C51" s="8" t="s">
         <v>250</v>
+      </c>
+      <c r="L51" s="24">
+        <v>0</v>
+      </c>
+      <c r="M51" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="N51" s="36" t="s">
+        <v>459</v>
       </c>
       <c r="T51">
         <v>48</v>
@@ -9915,7 +10237,7 @@
       </c>
       <c r="V51">
         <f t="shared" si="1"/>
-        <v>-0.60371517027863775</v>
+        <v>-0.52941176470588236</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9928,6 +10250,15 @@
       <c r="C52" s="15" t="s">
         <v>209</v>
       </c>
+      <c r="L52" s="24">
+        <v>1</v>
+      </c>
+      <c r="M52" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="N52" s="25" t="s">
+        <v>460</v>
+      </c>
       <c r="T52">
         <v>49</v>
       </c>
@@ -9937,10 +10268,10 @@
       </c>
       <c r="V52">
         <f t="shared" si="1"/>
-        <v>-0.59545923632610942</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.51960784313725494</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A53">
         <v>50</v>
       </c>
@@ -9949,6 +10280,15 @@
       </c>
       <c r="C53" s="8" t="s">
         <v>251</v>
+      </c>
+      <c r="L53" s="27">
+        <v>2</v>
+      </c>
+      <c r="M53" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="N53" s="29" t="s">
+        <v>461</v>
       </c>
       <c r="T53">
         <v>50</v>
@@ -9959,7 +10299,7 @@
       </c>
       <c r="V53">
         <f t="shared" si="1"/>
-        <v>-0.58720330237358109</v>
+        <v>-0.50980392156862753</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -9981,7 +10321,7 @@
       </c>
       <c r="V54">
         <f t="shared" si="1"/>
-        <v>-0.57894736842105254</v>
+        <v>-0.49999999999999994</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -10003,7 +10343,7 @@
       </c>
       <c r="V55">
         <f t="shared" si="1"/>
-        <v>-0.57069143446852422</v>
+        <v>-0.49019607843137253</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -10025,7 +10365,7 @@
       </c>
       <c r="V56">
         <f t="shared" si="1"/>
-        <v>-0.56243550051599578</v>
+        <v>-0.48039215686274495</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -10038,7 +10378,7 @@
       </c>
       <c r="V57">
         <f t="shared" si="1"/>
-        <v>-0.55417956656346745</v>
+        <v>-0.47058823529411753</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -10051,7 +10391,7 @@
       </c>
       <c r="V58">
         <f t="shared" si="1"/>
-        <v>-0.54592363261093901</v>
+        <v>-0.46078431372549011</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -10064,7 +10404,7 @@
       </c>
       <c r="V59">
         <f t="shared" si="1"/>
-        <v>-0.53766769865841069</v>
+        <v>-0.4509803921568627</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -10077,7 +10417,7 @@
       </c>
       <c r="V60">
         <f t="shared" si="1"/>
-        <v>-0.52941176470588236</v>
+        <v>-0.44117647058823528</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -10090,7 +10430,7 @@
       </c>
       <c r="V61">
         <f t="shared" si="1"/>
-        <v>-0.52115583075335403</v>
+        <v>-0.43137254901960786</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -10103,7 +10443,7 @@
       </c>
       <c r="V62">
         <f t="shared" si="1"/>
-        <v>-0.51289989680082559</v>
+        <v>-0.42156862745098034</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -10116,7 +10456,7 @@
       </c>
       <c r="V63">
         <f t="shared" si="1"/>
-        <v>-0.50464396284829727</v>
+        <v>-0.41176470588235292</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -10129,7 +10469,7 @@
       </c>
       <c r="V64">
         <f t="shared" si="1"/>
-        <v>-0.49638802889576877</v>
+        <v>-0.40196078431372534</v>
       </c>
     </row>
     <row r="65" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10142,7 +10482,7 @@
       </c>
       <c r="V65">
         <f t="shared" si="1"/>
-        <v>-0.48813209494324045</v>
+        <v>-0.39215686274509792</v>
       </c>
     </row>
     <row r="66" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10155,7 +10495,7 @@
       </c>
       <c r="V66">
         <f t="shared" si="1"/>
-        <v>-0.47987616099071206</v>
+        <v>-0.38235294117647051</v>
       </c>
     </row>
     <row r="67" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10168,7 +10508,7 @@
       </c>
       <c r="V67">
         <f t="shared" si="1"/>
-        <v>-0.47162022703818374</v>
+        <v>-0.37254901960784309</v>
       </c>
     </row>
     <row r="68" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10180,8 +10520,8 @@
         <v>-0.49019607843137258</v>
       </c>
       <c r="V68">
-        <f t="shared" ref="V68:V131" si="4">IF(ABS(U68)&lt;0.05,0,(U68-(ABS(U68)/U68*0.05))/(1-0.05))</f>
-        <v>-0.46336429308565541</v>
+        <f t="shared" ref="V68:V131" si="4">IF(ABS(U68)&lt;0.2,0,(U68-(ABS(U68)/U68*0.2))/(1-0.2))</f>
+        <v>-0.36274509803921567</v>
       </c>
     </row>
     <row r="69" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10194,7 +10534,7 @@
       </c>
       <c r="V69">
         <f t="shared" si="4"/>
-        <v>-0.45510835913312692</v>
+        <v>-0.35294117647058815</v>
       </c>
     </row>
     <row r="70" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10207,7 +10547,7 @@
       </c>
       <c r="V70">
         <f t="shared" si="4"/>
-        <v>-0.44685242518059859</v>
+        <v>-0.34313725490196073</v>
       </c>
     </row>
     <row r="71" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10220,7 +10560,7 @@
       </c>
       <c r="V71">
         <f t="shared" si="4"/>
-        <v>-0.43859649122807021</v>
+        <v>-0.33333333333333331</v>
       </c>
     </row>
     <row r="72" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10233,7 +10573,7 @@
       </c>
       <c r="V72">
         <f t="shared" si="4"/>
-        <v>-0.43034055727554188</v>
+        <v>-0.3235294117647059</v>
       </c>
     </row>
     <row r="73" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10246,7 +10586,7 @@
       </c>
       <c r="V73">
         <f t="shared" si="4"/>
-        <v>-0.42208462332301339</v>
+        <v>-0.31372549019607832</v>
       </c>
     </row>
     <row r="74" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10259,7 +10599,7 @@
       </c>
       <c r="V74">
         <f t="shared" si="4"/>
-        <v>-0.41382868937048506</v>
+        <v>-0.3039215686274509</v>
       </c>
     </row>
     <row r="75" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10272,7 +10612,7 @@
       </c>
       <c r="V75">
         <f t="shared" si="4"/>
-        <v>-0.40557275541795668</v>
+        <v>-0.29411764705882348</v>
       </c>
     </row>
     <row r="76" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10285,7 +10625,7 @@
       </c>
       <c r="V76">
         <f t="shared" si="4"/>
-        <v>-0.39731682146542835</v>
+        <v>-0.28431372549019607</v>
       </c>
     </row>
     <row r="77" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10298,7 +10638,7 @@
       </c>
       <c r="V77">
         <f t="shared" si="4"/>
-        <v>-0.38906088751289986</v>
+        <v>-0.27450980392156854</v>
       </c>
     </row>
     <row r="78" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10311,7 +10651,7 @@
       </c>
       <c r="V78">
         <f t="shared" si="4"/>
-        <v>-0.38080495356037153</v>
+        <v>-0.26470588235294112</v>
       </c>
     </row>
     <row r="79" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10324,7 +10664,7 @@
       </c>
       <c r="V79">
         <f t="shared" si="4"/>
-        <v>-0.3725490196078432</v>
+        <v>-0.25490196078431371</v>
       </c>
     </row>
     <row r="80" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10337,7 +10677,7 @@
       </c>
       <c r="V80">
         <f t="shared" si="4"/>
-        <v>-0.36429308565531482</v>
+        <v>-0.24509803921568629</v>
       </c>
     </row>
     <row r="81" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10350,7 +10690,7 @@
       </c>
       <c r="V81">
         <f t="shared" si="4"/>
-        <v>-0.35603715170278638</v>
+        <v>-0.23529411764705874</v>
       </c>
     </row>
     <row r="82" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10363,7 +10703,7 @@
       </c>
       <c r="V82">
         <f t="shared" si="4"/>
-        <v>-0.347781217750258</v>
+        <v>-0.22549019607843132</v>
       </c>
     </row>
     <row r="83" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10376,7 +10716,7 @@
       </c>
       <c r="V83">
         <f t="shared" si="4"/>
-        <v>-0.33952528379772967</v>
+        <v>-0.2156862745098039</v>
       </c>
     </row>
     <row r="84" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10389,7 +10729,7 @@
       </c>
       <c r="V84">
         <f t="shared" si="4"/>
-        <v>-0.33126934984520129</v>
+        <v>-0.20588235294117649</v>
       </c>
     </row>
     <row r="85" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10402,7 +10742,7 @@
       </c>
       <c r="V85">
         <f t="shared" si="4"/>
-        <v>-0.32301341589267285</v>
+        <v>-0.19607843137254893</v>
       </c>
     </row>
     <row r="86" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10415,7 +10755,7 @@
       </c>
       <c r="V86">
         <f t="shared" si="4"/>
-        <v>-0.31475748194014447</v>
+        <v>-0.18627450980392152</v>
       </c>
     </row>
     <row r="87" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10428,7 +10768,7 @@
       </c>
       <c r="V87">
         <f t="shared" si="4"/>
-        <v>-0.30650154798761614</v>
+        <v>-0.1764705882352941</v>
       </c>
     </row>
     <row r="88" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10441,7 +10781,7 @@
       </c>
       <c r="V88">
         <f t="shared" si="4"/>
-        <v>-0.29824561403508776</v>
+        <v>-0.16666666666666669</v>
       </c>
     </row>
     <row r="89" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10454,7 +10794,7 @@
       </c>
       <c r="V89">
         <f t="shared" si="4"/>
-        <v>-0.28998968008255932</v>
+        <v>-0.15686274509803913</v>
       </c>
     </row>
     <row r="90" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10467,7 +10807,7 @@
       </c>
       <c r="V90">
         <f t="shared" si="4"/>
-        <v>-0.28173374613003099</v>
+        <v>-0.14705882352941171</v>
       </c>
     </row>
     <row r="91" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10480,7 +10820,7 @@
       </c>
       <c r="V91">
         <f t="shared" si="4"/>
-        <v>-0.27347781217750261</v>
+        <v>-0.1372549019607843</v>
       </c>
     </row>
     <row r="92" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10493,7 +10833,7 @@
       </c>
       <c r="V92">
         <f t="shared" si="4"/>
-        <v>-0.26522187822497428</v>
+        <v>-0.12745098039215688</v>
       </c>
     </row>
     <row r="93" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10506,7 +10846,7 @@
       </c>
       <c r="V93">
         <f t="shared" si="4"/>
-        <v>-0.25696594427244579</v>
+        <v>-0.11764705882352934</v>
       </c>
     </row>
     <row r="94" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10519,7 +10859,7 @@
       </c>
       <c r="V94">
         <f t="shared" si="4"/>
-        <v>-0.24871001031991744</v>
+        <v>-0.10784313725490192</v>
       </c>
     </row>
     <row r="95" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10532,7 +10872,7 @@
       </c>
       <c r="V95">
         <f t="shared" si="4"/>
-        <v>-0.24045407636738911</v>
+        <v>-9.8039215686274508E-2</v>
       </c>
     </row>
     <row r="96" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10545,7 +10885,7 @@
       </c>
       <c r="V96">
         <f t="shared" si="4"/>
-        <v>-0.23219814241486075</v>
+        <v>-8.8235294117647092E-2</v>
       </c>
     </row>
     <row r="97" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10558,7 +10898,7 @@
       </c>
       <c r="V97">
         <f t="shared" si="4"/>
-        <v>-0.22394220846233229</v>
+        <v>-7.8431372549019537E-2</v>
       </c>
     </row>
     <row r="98" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10571,7 +10911,7 @@
       </c>
       <c r="V98">
         <f t="shared" si="4"/>
-        <v>-0.21568627450980393</v>
+        <v>-6.8627450980392121E-2</v>
       </c>
     </row>
     <row r="99" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10584,7 +10924,7 @@
       </c>
       <c r="V99">
         <f t="shared" si="4"/>
-        <v>-0.20743034055727558</v>
+        <v>-5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="100" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10597,7 +10937,7 @@
       </c>
       <c r="V100">
         <f t="shared" si="4"/>
-        <v>-0.19917440660474722</v>
+        <v>-4.9019607843137289E-2</v>
       </c>
     </row>
     <row r="101" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10610,7 +10950,7 @@
       </c>
       <c r="V101">
         <f t="shared" si="4"/>
-        <v>-0.19091847265221876</v>
+        <v>-3.9215686274509734E-2</v>
       </c>
     </row>
     <row r="102" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10623,7 +10963,7 @@
       </c>
       <c r="V102">
         <f t="shared" si="4"/>
-        <v>-0.1826625386996904</v>
+        <v>-2.9411764705882318E-2</v>
       </c>
     </row>
     <row r="103" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10636,7 +10976,7 @@
       </c>
       <c r="V103">
         <f t="shared" si="4"/>
-        <v>-0.17440660474716205</v>
+        <v>-1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="104" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10649,7 +10989,7 @@
       </c>
       <c r="V104">
         <f t="shared" si="4"/>
-        <v>-0.16615067079463369</v>
+        <v>-9.8039215686274855E-3</v>
       </c>
     </row>
     <row r="105" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10662,7 +11002,7 @@
       </c>
       <c r="V105">
         <f t="shared" si="4"/>
-        <v>-0.15789473684210523</v>
+        <v>6.9388939039072284E-17</v>
       </c>
     </row>
     <row r="106" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10675,7 +11015,7 @@
       </c>
       <c r="V106">
         <f t="shared" si="4"/>
-        <v>-0.14963880288957687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10688,7 +11028,7 @@
       </c>
       <c r="V107">
         <f t="shared" si="4"/>
-        <v>-0.14138286893704854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10701,7 +11041,7 @@
       </c>
       <c r="V108">
         <f t="shared" si="4"/>
-        <v>-0.13312693498452019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10714,7 +11054,7 @@
       </c>
       <c r="V109">
         <f t="shared" si="4"/>
-        <v>-0.1248710010319917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10727,7 +11067,7 @@
       </c>
       <c r="V110">
         <f t="shared" si="4"/>
-        <v>-0.11661506707946336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10740,7 +11080,7 @@
       </c>
       <c r="V111">
         <f t="shared" si="4"/>
-        <v>-0.108359133126935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10753,7 +11093,7 @@
       </c>
       <c r="V112">
         <f t="shared" si="4"/>
-        <v>-0.10010319917440665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10766,7 +11106,7 @@
       </c>
       <c r="V113">
         <f t="shared" si="4"/>
-        <v>-9.184726522187818E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10779,7 +11119,7 @@
       </c>
       <c r="V114">
         <f t="shared" si="4"/>
-        <v>-8.3591331269349825E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10792,7 +11132,7 @@
       </c>
       <c r="V115">
         <f t="shared" si="4"/>
-        <v>-7.5335397316821484E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10805,7 +11145,7 @@
       </c>
       <c r="V116">
         <f t="shared" si="4"/>
-        <v>-6.7079463364293129E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10818,7 +11158,7 @@
       </c>
       <c r="V117">
         <f t="shared" si="4"/>
-        <v>-5.8823529411764663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10831,7 +11171,7 @@
       </c>
       <c r="V118">
         <f t="shared" si="4"/>
-        <v>-5.0567595459236309E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10844,7 +11184,7 @@
       </c>
       <c r="V119">
         <f t="shared" si="4"/>
-        <v>-4.2311661506707961E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10857,7 +11197,7 @@
       </c>
       <c r="V120">
         <f t="shared" si="4"/>
-        <v>-3.4055727554179606E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10870,7 +11210,7 @@
       </c>
       <c r="V121">
         <f t="shared" si="4"/>
-        <v>-2.579979360165114E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10883,7 +11223,7 @@
       </c>
       <c r="V122">
         <f t="shared" si="4"/>
-        <v>-1.7543859649122789E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10896,7 +11236,7 @@
       </c>
       <c r="V123">
         <f t="shared" si="4"/>
-        <v>-9.2879256965944391E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -10909,7 +11249,7 @@
       </c>
       <c r="V124">
         <f t="shared" si="4"/>
-        <v>-1.0319917440660877E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11012,7 +11352,7 @@
         <v>1.1764705882352899E-2</v>
       </c>
       <c r="V132">
-        <f t="shared" ref="V132:V195" si="6">IF(ABS(U132)&lt;0.05,0,(U132-(ABS(U132)/U132*0.05))/(1-0.05))</f>
+        <f t="shared" ref="V132:V195" si="6">IF(ABS(U132)&lt;0.2,0,(U132-(ABS(U132)/U132*0.2))/(1-0.2))</f>
         <v>0</v>
       </c>
     </row>
@@ -11078,7 +11418,7 @@
       </c>
       <c r="V137">
         <f t="shared" si="6"/>
-        <v>1.0319917440660877E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11091,7 +11431,7 @@
       </c>
       <c r="V138">
         <f t="shared" si="6"/>
-        <v>9.2879256965944391E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11104,7 +11444,7 @@
       </c>
       <c r="V139">
         <f t="shared" si="6"/>
-        <v>1.7543859649122789E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11117,7 +11457,7 @@
       </c>
       <c r="V140">
         <f t="shared" si="6"/>
-        <v>2.579979360165114E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11130,7 +11470,7 @@
       </c>
       <c r="V141">
         <f t="shared" si="6"/>
-        <v>3.4055727554179488E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11143,7 +11483,7 @@
       </c>
       <c r="V142">
         <f t="shared" si="6"/>
-        <v>4.2311661506707843E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11156,7 +11496,7 @@
       </c>
       <c r="V143">
         <f t="shared" si="6"/>
-        <v>5.0567595459236427E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11169,7 +11509,7 @@
       </c>
       <c r="V144">
         <f t="shared" si="6"/>
-        <v>5.8823529411764774E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11182,7 +11522,7 @@
       </c>
       <c r="V145">
         <f t="shared" si="6"/>
-        <v>6.7079463364293129E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11195,7 +11535,7 @@
       </c>
       <c r="V146">
         <f t="shared" si="6"/>
-        <v>7.5335397316821484E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11208,7 +11548,7 @@
       </c>
       <c r="V147">
         <f t="shared" si="6"/>
-        <v>8.3591331269349825E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11221,7 +11561,7 @@
       </c>
       <c r="V148">
         <f t="shared" si="6"/>
-        <v>9.184726522187818E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11234,7 +11574,7 @@
       </c>
       <c r="V149">
         <f t="shared" si="6"/>
-        <v>0.10010319917440653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11247,7 +11587,7 @@
       </c>
       <c r="V150">
         <f t="shared" si="6"/>
-        <v>0.10835913312693488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11260,7 +11600,7 @@
       </c>
       <c r="V151">
         <f t="shared" si="6"/>
-        <v>0.11661506707946347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11273,7 +11613,7 @@
       </c>
       <c r="V152">
         <f t="shared" si="6"/>
-        <v>0.12487100103199182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11286,7 +11626,7 @@
       </c>
       <c r="V153">
         <f t="shared" si="6"/>
-        <v>0.13312693498452019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11299,7 +11639,7 @@
       </c>
       <c r="V154">
         <f t="shared" si="6"/>
-        <v>0.14138286893704854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11312,7 +11652,7 @@
       </c>
       <c r="V155">
         <f t="shared" si="6"/>
-        <v>0.14963880288957687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11325,7 +11665,7 @@
       </c>
       <c r="V156">
         <f t="shared" si="6"/>
-        <v>0.15789473684210523</v>
+        <v>-6.9388939039072284E-17</v>
       </c>
     </row>
     <row r="157" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11338,7 +11678,7 @@
       </c>
       <c r="V157">
         <f t="shared" si="6"/>
-        <v>0.16615067079463358</v>
+        <v>9.8039215686273468E-3</v>
       </c>
     </row>
     <row r="158" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11351,7 +11691,7 @@
       </c>
       <c r="V158">
         <f t="shared" si="6"/>
-        <v>0.17440660474716194</v>
+        <v>1.9607843137254763E-2</v>
       </c>
     </row>
     <row r="159" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11364,7 +11704,7 @@
       </c>
       <c r="V159">
         <f t="shared" si="6"/>
-        <v>0.18266253869969051</v>
+        <v>2.9411764705882457E-2</v>
       </c>
     </row>
     <row r="160" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11377,7 +11717,7 @@
       </c>
       <c r="V160">
         <f t="shared" si="6"/>
-        <v>0.19091847265221887</v>
+        <v>3.9215686274509873E-2</v>
       </c>
     </row>
     <row r="161" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11390,7 +11730,7 @@
       </c>
       <c r="V161">
         <f t="shared" si="6"/>
-        <v>0.19917440660474722</v>
+        <v>4.9019607843137289E-2</v>
       </c>
     </row>
     <row r="162" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11403,7 +11743,7 @@
       </c>
       <c r="V162">
         <f t="shared" si="6"/>
-        <v>0.20743034055727558</v>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="163" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11416,7 +11756,7 @@
       </c>
       <c r="V163">
         <f t="shared" si="6"/>
-        <v>0.21568627450980393</v>
+        <v>6.8627450980392121E-2</v>
       </c>
     </row>
     <row r="164" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11429,7 +11769,7 @@
       </c>
       <c r="V164">
         <f t="shared" si="6"/>
-        <v>0.22394220846233229</v>
+        <v>7.8431372549019537E-2</v>
       </c>
     </row>
     <row r="165" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11442,7 +11782,7 @@
       </c>
       <c r="V165">
         <f t="shared" si="6"/>
-        <v>0.23219814241486061</v>
+        <v>8.8235294117646954E-2</v>
       </c>
     </row>
     <row r="166" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11455,7 +11795,7 @@
       </c>
       <c r="V166">
         <f t="shared" si="6"/>
-        <v>0.24045407636738897</v>
+        <v>9.803921568627437E-2</v>
       </c>
     </row>
     <row r="167" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11468,7 +11808,7 @@
       </c>
       <c r="V167">
         <f t="shared" si="6"/>
-        <v>0.24871001031991757</v>
+        <v>0.10784313725490206</v>
       </c>
     </row>
     <row r="168" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11481,7 +11821,7 @@
       </c>
       <c r="V168">
         <f t="shared" si="6"/>
-        <v>0.2569659442724459</v>
+        <v>0.11764705882352948</v>
       </c>
     </row>
     <row r="169" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11494,7 +11834,7 @@
       </c>
       <c r="V169">
         <f t="shared" si="6"/>
-        <v>0.26522187822497428</v>
+        <v>0.12745098039215688</v>
       </c>
     </row>
     <row r="170" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11507,7 +11847,7 @@
       </c>
       <c r="V170">
         <f t="shared" si="6"/>
-        <v>0.27347781217750261</v>
+        <v>0.1372549019607843</v>
       </c>
     </row>
     <row r="171" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11520,7 +11860,7 @@
       </c>
       <c r="V171">
         <f t="shared" si="6"/>
-        <v>0.28173374613003099</v>
+        <v>0.14705882352941171</v>
       </c>
     </row>
     <row r="172" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11533,7 +11873,7 @@
       </c>
       <c r="V172">
         <f t="shared" si="6"/>
-        <v>0.28998968008255932</v>
+        <v>0.15686274509803913</v>
       </c>
     </row>
     <row r="173" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11546,7 +11886,7 @@
       </c>
       <c r="V173">
         <f t="shared" si="6"/>
-        <v>0.29824561403508765</v>
+        <v>0.16666666666666655</v>
       </c>
     </row>
     <row r="174" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11559,7 +11899,7 @@
       </c>
       <c r="V174">
         <f t="shared" si="6"/>
-        <v>0.30650154798761603</v>
+        <v>0.17647058823529396</v>
       </c>
     </row>
     <row r="175" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11572,7 +11912,7 @@
       </c>
       <c r="V175">
         <f t="shared" si="6"/>
-        <v>0.31475748194014458</v>
+        <v>0.18627450980392166</v>
       </c>
     </row>
     <row r="176" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11585,7 +11925,7 @@
       </c>
       <c r="V176">
         <f t="shared" si="6"/>
-        <v>0.32301341589267296</v>
+        <v>0.19607843137254907</v>
       </c>
     </row>
     <row r="177" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11598,7 +11938,7 @@
       </c>
       <c r="V177">
         <f t="shared" si="6"/>
-        <v>0.33126934984520129</v>
+        <v>0.20588235294117649</v>
       </c>
     </row>
     <row r="178" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11611,7 +11951,7 @@
       </c>
       <c r="V178">
         <f t="shared" si="6"/>
-        <v>0.33952528379772967</v>
+        <v>0.2156862745098039</v>
       </c>
     </row>
     <row r="179" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11624,7 +11964,7 @@
       </c>
       <c r="V179">
         <f t="shared" si="6"/>
-        <v>0.347781217750258</v>
+        <v>0.22549019607843132</v>
       </c>
     </row>
     <row r="180" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11637,7 +11977,7 @@
       </c>
       <c r="V180">
         <f t="shared" si="6"/>
-        <v>0.35603715170278638</v>
+        <v>0.23529411764705874</v>
       </c>
     </row>
     <row r="181" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11650,7 +11990,7 @@
       </c>
       <c r="V181">
         <f t="shared" si="6"/>
-        <v>0.36429308565531471</v>
+        <v>0.24509803921568615</v>
       </c>
     </row>
     <row r="182" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11663,7 +12003,7 @@
       </c>
       <c r="V182">
         <f t="shared" si="6"/>
-        <v>0.37254901960784303</v>
+        <v>0.25490196078431354</v>
       </c>
     </row>
     <row r="183" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11676,7 +12016,7 @@
       </c>
       <c r="V183">
         <f t="shared" si="6"/>
-        <v>0.38080495356037164</v>
+        <v>0.26470588235294124</v>
       </c>
     </row>
     <row r="184" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11689,7 +12029,7 @@
       </c>
       <c r="V184">
         <f t="shared" si="6"/>
-        <v>0.38906088751289997</v>
+        <v>0.27450980392156865</v>
       </c>
     </row>
     <row r="185" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11702,7 +12042,7 @@
       </c>
       <c r="V185">
         <f t="shared" si="6"/>
-        <v>0.39731682146542835</v>
+        <v>0.28431372549019607</v>
       </c>
     </row>
     <row r="186" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11715,7 +12055,7 @@
       </c>
       <c r="V186">
         <f t="shared" si="6"/>
-        <v>0.40557275541795668</v>
+        <v>0.29411764705882348</v>
       </c>
     </row>
     <row r="187" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11728,7 +12068,7 @@
       </c>
       <c r="V187">
         <f t="shared" si="6"/>
-        <v>0.41382868937048506</v>
+        <v>0.3039215686274509</v>
       </c>
     </row>
     <row r="188" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11741,7 +12081,7 @@
       </c>
       <c r="V188">
         <f t="shared" si="6"/>
-        <v>0.42208462332301339</v>
+        <v>0.31372549019607832</v>
       </c>
     </row>
     <row r="189" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11754,7 +12094,7 @@
       </c>
       <c r="V189">
         <f t="shared" si="6"/>
-        <v>0.43034055727554177</v>
+        <v>0.32352941176470573</v>
       </c>
     </row>
     <row r="190" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11767,7 +12107,7 @@
       </c>
       <c r="V190">
         <f t="shared" si="6"/>
-        <v>0.4385964912280701</v>
+        <v>0.33333333333333315</v>
       </c>
     </row>
     <row r="191" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11780,7 +12120,7 @@
       </c>
       <c r="V191">
         <f t="shared" si="6"/>
-        <v>0.4468524251805987</v>
+        <v>0.34313725490196084</v>
       </c>
     </row>
     <row r="192" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11793,7 +12133,7 @@
       </c>
       <c r="V192">
         <f t="shared" si="6"/>
-        <v>0.45510835913312703</v>
+        <v>0.35294117647058826</v>
       </c>
     </row>
     <row r="193" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11806,7 +12146,7 @@
       </c>
       <c r="V193">
         <f t="shared" si="6"/>
-        <v>0.46336429308565541</v>
+        <v>0.36274509803921567</v>
       </c>
     </row>
     <row r="194" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11819,7 +12159,7 @@
       </c>
       <c r="V194">
         <f t="shared" si="6"/>
-        <v>0.47162022703818374</v>
+        <v>0.37254901960784309</v>
       </c>
     </row>
     <row r="195" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11832,7 +12172,7 @@
       </c>
       <c r="V195">
         <f t="shared" si="6"/>
-        <v>0.47987616099071206</v>
+        <v>0.38235294117647051</v>
       </c>
     </row>
     <row r="196" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11844,8 +12184,8 @@
         <v>0.51372549019607838</v>
       </c>
       <c r="V196">
-        <f t="shared" ref="V196:V258" si="8">IF(ABS(U196)&lt;0.05,0,(U196-(ABS(U196)/U196*0.05))/(1-0.05))</f>
-        <v>0.48813209494324045</v>
+        <f t="shared" ref="V196:V258" si="8">IF(ABS(U196)&lt;0.2,0,(U196-(ABS(U196)/U196*0.2))/(1-0.2))</f>
+        <v>0.39215686274509792</v>
       </c>
     </row>
     <row r="197" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11858,7 +12198,7 @@
       </c>
       <c r="V197">
         <f t="shared" si="8"/>
-        <v>0.49638802889576877</v>
+        <v>0.40196078431372534</v>
       </c>
     </row>
     <row r="198" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11871,7 +12211,7 @@
       </c>
       <c r="V198">
         <f t="shared" si="8"/>
-        <v>0.50464396284829716</v>
+        <v>0.41176470588235276</v>
       </c>
     </row>
     <row r="199" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11884,7 +12224,7 @@
       </c>
       <c r="V199">
         <f t="shared" si="8"/>
-        <v>0.51289989680082571</v>
+        <v>0.42156862745098045</v>
       </c>
     </row>
     <row r="200" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11897,7 +12237,7 @@
       </c>
       <c r="V200">
         <f t="shared" si="8"/>
-        <v>0.52115583075335403</v>
+        <v>0.43137254901960786</v>
       </c>
     </row>
     <row r="201" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11910,7 +12250,7 @@
       </c>
       <c r="V201">
         <f t="shared" si="8"/>
-        <v>0.52941176470588236</v>
+        <v>0.44117647058823528</v>
       </c>
     </row>
     <row r="202" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11923,7 +12263,7 @@
       </c>
       <c r="V202">
         <f t="shared" si="8"/>
-        <v>0.53766769865841069</v>
+        <v>0.4509803921568627</v>
       </c>
     </row>
     <row r="203" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11936,7 +12276,7 @@
       </c>
       <c r="V203">
         <f t="shared" si="8"/>
-        <v>0.54592363261093901</v>
+        <v>0.46078431372549011</v>
       </c>
     </row>
     <row r="204" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11949,7 +12289,7 @@
       </c>
       <c r="V204">
         <f t="shared" si="8"/>
-        <v>0.55417956656346745</v>
+        <v>0.47058823529411753</v>
       </c>
     </row>
     <row r="205" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11962,7 +12302,7 @@
       </c>
       <c r="V205">
         <f t="shared" si="8"/>
-        <v>0.56243550051599578</v>
+        <v>0.48039215686274495</v>
       </c>
     </row>
     <row r="206" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11975,7 +12315,7 @@
       </c>
       <c r="V206">
         <f t="shared" si="8"/>
-        <v>0.57069143446852411</v>
+        <v>0.49019607843137236</v>
       </c>
     </row>
     <row r="207" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -11988,7 +12328,7 @@
       </c>
       <c r="V207">
         <f t="shared" si="8"/>
-        <v>0.57894736842105265</v>
+        <v>0.50000000000000011</v>
       </c>
     </row>
     <row r="208" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12001,7 +12341,7 @@
       </c>
       <c r="V208">
         <f t="shared" si="8"/>
-        <v>0.58720330237358109</v>
+        <v>0.50980392156862753</v>
       </c>
     </row>
     <row r="209" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12014,7 +12354,7 @@
       </c>
       <c r="V209">
         <f t="shared" si="8"/>
-        <v>0.59545923632610942</v>
+        <v>0.51960784313725494</v>
       </c>
     </row>
     <row r="210" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12027,7 +12367,7 @@
       </c>
       <c r="V210">
         <f t="shared" si="8"/>
-        <v>0.60371517027863775</v>
+        <v>0.52941176470588236</v>
       </c>
     </row>
     <row r="211" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12040,7 +12380,7 @@
       </c>
       <c r="V211">
         <f t="shared" si="8"/>
-        <v>0.61197110423116607</v>
+        <v>0.53921568627450978</v>
       </c>
     </row>
     <row r="212" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12053,7 +12393,7 @@
       </c>
       <c r="V212">
         <f t="shared" si="8"/>
-        <v>0.62022703818369451</v>
+        <v>0.54901960784313719</v>
       </c>
     </row>
     <row r="213" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12066,7 +12406,7 @@
       </c>
       <c r="V213">
         <f t="shared" si="8"/>
-        <v>0.62848297213622284</v>
+        <v>0.55882352941176461</v>
       </c>
     </row>
     <row r="214" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12079,7 +12419,7 @@
       </c>
       <c r="V214">
         <f t="shared" si="8"/>
-        <v>0.63673890608875117</v>
+        <v>0.56862745098039202</v>
       </c>
     </row>
     <row r="215" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12092,7 +12432,7 @@
       </c>
       <c r="V215">
         <f t="shared" si="8"/>
-        <v>0.64499484004127972</v>
+        <v>0.57843137254901966</v>
       </c>
     </row>
     <row r="216" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12105,7 +12445,7 @@
       </c>
       <c r="V216">
         <f t="shared" si="8"/>
-        <v>0.65325077399380804</v>
+        <v>0.58823529411764708</v>
       </c>
     </row>
     <row r="217" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12118,7 +12458,7 @@
       </c>
       <c r="V217">
         <f t="shared" si="8"/>
-        <v>0.66150670794633648</v>
+        <v>0.59803921568627449</v>
       </c>
     </row>
     <row r="218" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12131,7 +12471,7 @@
       </c>
       <c r="V218">
         <f t="shared" si="8"/>
-        <v>0.66976264189886481</v>
+        <v>0.60784313725490191</v>
       </c>
     </row>
     <row r="219" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12144,7 +12484,7 @@
       </c>
       <c r="V219">
         <f t="shared" si="8"/>
-        <v>0.67801857585139313</v>
+        <v>0.61764705882352933</v>
       </c>
     </row>
     <row r="220" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12157,7 +12497,7 @@
       </c>
       <c r="V220">
         <f t="shared" si="8"/>
-        <v>0.68627450980392146</v>
+        <v>0.62745098039215685</v>
       </c>
     </row>
     <row r="221" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12170,7 +12510,7 @@
       </c>
       <c r="V221">
         <f t="shared" si="8"/>
-        <v>0.6945304437564499</v>
+        <v>0.63725490196078427</v>
       </c>
     </row>
     <row r="222" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12183,7 +12523,7 @@
       </c>
       <c r="V222">
         <f t="shared" si="8"/>
-        <v>0.70278637770897823</v>
+        <v>0.64705882352941169</v>
       </c>
     </row>
     <row r="223" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12196,7 +12536,7 @@
       </c>
       <c r="V223">
         <f t="shared" si="8"/>
-        <v>0.71104231166150678</v>
+        <v>0.65686274509803932</v>
       </c>
     </row>
     <row r="224" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12209,7 +12549,7 @@
       </c>
       <c r="V224">
         <f t="shared" si="8"/>
-        <v>0.7192982456140351</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="225" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12222,7 +12562,7 @@
       </c>
       <c r="V225">
         <f t="shared" si="8"/>
-        <v>0.72755417956656354</v>
+        <v>0.67647058823529416</v>
       </c>
     </row>
     <row r="226" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12235,7 +12575,7 @@
       </c>
       <c r="V226">
         <f t="shared" si="8"/>
-        <v>0.73581011351909187</v>
+        <v>0.68627450980392157</v>
       </c>
     </row>
     <row r="227" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12248,7 +12588,7 @@
       </c>
       <c r="V227">
         <f t="shared" si="8"/>
-        <v>0.7440660474716202</v>
+        <v>0.69607843137254899</v>
       </c>
     </row>
     <row r="228" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12261,7 +12601,7 @@
       </c>
       <c r="V228">
         <f t="shared" si="8"/>
-        <v>0.75232198142414852</v>
+        <v>0.70588235294117641</v>
       </c>
     </row>
     <row r="229" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12274,7 +12614,7 @@
       </c>
       <c r="V229">
         <f t="shared" si="8"/>
-        <v>0.76057791537667685</v>
+        <v>0.71568627450980382</v>
       </c>
     </row>
     <row r="230" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12287,7 +12627,7 @@
       </c>
       <c r="V230">
         <f t="shared" si="8"/>
-        <v>0.76883384932920529</v>
+        <v>0.72549019607843124</v>
       </c>
     </row>
     <row r="231" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12300,7 +12640,7 @@
       </c>
       <c r="V231">
         <f t="shared" si="8"/>
-        <v>0.77708978328173384</v>
+        <v>0.73529411764705899</v>
       </c>
     </row>
     <row r="232" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12313,7 +12653,7 @@
       </c>
       <c r="V232">
         <f t="shared" si="8"/>
-        <v>0.78534571723426216</v>
+        <v>0.7450980392156864</v>
       </c>
     </row>
     <row r="233" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12326,7 +12666,7 @@
       </c>
       <c r="V233">
         <f t="shared" si="8"/>
-        <v>0.79360165118679049</v>
+        <v>0.75490196078431382</v>
       </c>
     </row>
     <row r="234" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12339,7 +12679,7 @@
       </c>
       <c r="V234">
         <f t="shared" si="8"/>
-        <v>0.80185758513931893</v>
+        <v>0.76470588235294124</v>
       </c>
     </row>
     <row r="235" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12352,7 +12692,7 @@
       </c>
       <c r="V235">
         <f t="shared" si="8"/>
-        <v>0.81011351909184726</v>
+        <v>0.77450980392156865</v>
       </c>
     </row>
     <row r="236" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12365,7 +12705,7 @@
       </c>
       <c r="V236">
         <f t="shared" si="8"/>
-        <v>0.81836945304437558</v>
+        <v>0.78431372549019607</v>
       </c>
     </row>
     <row r="237" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12378,7 +12718,7 @@
       </c>
       <c r="V237">
         <f t="shared" si="8"/>
-        <v>0.82662538699690391</v>
+        <v>0.79411764705882348</v>
       </c>
     </row>
     <row r="238" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12391,7 +12731,7 @@
       </c>
       <c r="V238">
         <f t="shared" si="8"/>
-        <v>0.83488132094943224</v>
+        <v>0.8039215686274509</v>
       </c>
     </row>
     <row r="239" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12404,7 +12744,7 @@
       </c>
       <c r="V239">
         <f t="shared" si="8"/>
-        <v>0.8431372549019609</v>
+        <v>0.81372549019607854</v>
       </c>
     </row>
     <row r="240" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12417,7 +12757,7 @@
       </c>
       <c r="V240">
         <f t="shared" si="8"/>
-        <v>0.85139318885448922</v>
+        <v>0.82352941176470595</v>
       </c>
     </row>
     <row r="241" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12430,7 +12770,7 @@
       </c>
       <c r="V241">
         <f t="shared" si="8"/>
-        <v>0.85964912280701755</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="242" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12443,7 +12783,7 @@
       </c>
       <c r="V242">
         <f t="shared" si="8"/>
-        <v>0.86790505675954588</v>
+        <v>0.84313725490196079</v>
       </c>
     </row>
     <row r="243" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12456,7 +12796,7 @@
       </c>
       <c r="V243">
         <f t="shared" si="8"/>
-        <v>0.87616099071207432</v>
+        <v>0.8529411764705882</v>
       </c>
     </row>
     <row r="244" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12469,7 +12809,7 @@
       </c>
       <c r="V244">
         <f t="shared" si="8"/>
-        <v>0.88441692466460264</v>
+        <v>0.86274509803921562</v>
       </c>
     </row>
     <row r="245" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12482,7 +12822,7 @@
       </c>
       <c r="V245">
         <f t="shared" si="8"/>
-        <v>0.89267285861713097</v>
+        <v>0.87254901960784303</v>
       </c>
     </row>
     <row r="246" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12495,7 +12835,7 @@
       </c>
       <c r="V246">
         <f t="shared" si="8"/>
-        <v>0.9009287925696593</v>
+        <v>0.88235294117647045</v>
       </c>
     </row>
     <row r="247" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12508,7 +12848,7 @@
       </c>
       <c r="V247">
         <f t="shared" si="8"/>
-        <v>0.90918472652218796</v>
+        <v>0.8921568627450982</v>
       </c>
     </row>
     <row r="248" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12521,7 +12861,7 @@
       </c>
       <c r="V248">
         <f t="shared" si="8"/>
-        <v>0.91744066047471629</v>
+        <v>0.90196078431372562</v>
       </c>
     </row>
     <row r="249" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12534,7 +12874,7 @@
       </c>
       <c r="V249">
         <f t="shared" si="8"/>
-        <v>0.92569659442724461</v>
+        <v>0.91176470588235303</v>
       </c>
     </row>
     <row r="250" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12547,7 +12887,7 @@
       </c>
       <c r="V250">
         <f t="shared" si="8"/>
-        <v>0.93395252837977294</v>
+        <v>0.92156862745098045</v>
       </c>
     </row>
     <row r="251" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12560,7 +12900,7 @@
       </c>
       <c r="V251">
         <f t="shared" si="8"/>
-        <v>0.94220846233230127</v>
+        <v>0.93137254901960786</v>
       </c>
     </row>
     <row r="252" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12573,7 +12913,7 @@
       </c>
       <c r="V252">
         <f t="shared" si="8"/>
-        <v>0.9504643962848297</v>
+        <v>0.94117647058823528</v>
       </c>
     </row>
     <row r="253" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12586,7 +12926,7 @@
       </c>
       <c r="V253">
         <f t="shared" si="8"/>
-        <v>0.95872033023735803</v>
+        <v>0.9509803921568627</v>
       </c>
     </row>
     <row r="254" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12599,7 +12939,7 @@
       </c>
       <c r="V254">
         <f t="shared" si="8"/>
-        <v>0.96697626418988636</v>
+        <v>0.96078431372549011</v>
       </c>
     </row>
     <row r="255" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12612,7 +12952,7 @@
       </c>
       <c r="V255">
         <f t="shared" si="8"/>
-        <v>0.97523219814241491</v>
+        <v>0.97058823529411775</v>
       </c>
     </row>
     <row r="256" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12625,7 +12965,7 @@
       </c>
       <c r="V256">
         <f t="shared" si="8"/>
-        <v>0.98348813209494335</v>
+        <v>0.98039215686274517</v>
       </c>
     </row>
     <row r="257" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12638,7 +12978,7 @@
       </c>
       <c r="V257">
         <f t="shared" si="8"/>
-        <v>0.99174406604747167</v>
+        <v>0.99019607843137258</v>
       </c>
     </row>
     <row r="258" spans="20:22" x14ac:dyDescent="0.55000000000000004">
@@ -12691,7 +13031,7 @@
         <v>271</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
@@ -12711,16 +13051,16 @@
         <v>274</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -12728,13 +13068,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>277</v>
@@ -12751,10 +13091,10 @@
         <v>275</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>277</v>
@@ -12771,10 +13111,10 @@
         <v>297</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>277</v>
@@ -12791,16 +13131,16 @@
         <v>299</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -12811,16 +13151,16 @@
         <v>300</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -12831,10 +13171,10 @@
         <v>301</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>312</v>
@@ -12851,10 +13191,10 @@
         <v>302</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>277</v>
@@ -12871,10 +13211,10 @@
         <v>303</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>277</v>
@@ -12891,10 +13231,10 @@
         <v>304</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>277</v>
@@ -12911,16 +13251,16 @@
         <v>305</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -12931,10 +13271,10 @@
         <v>306</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>312</v>
@@ -12951,10 +13291,10 @@
         <v>307</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>312</v>
@@ -12971,16 +13311,16 @@
         <v>308</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>312</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -12991,16 +13331,16 @@
         <v>309</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13011,10 +13351,10 @@
         <v>314</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>277</v>
@@ -13031,13 +13371,13 @@
         <v>315</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>316</v>
@@ -13051,16 +13391,16 @@
         <v>319</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13071,16 +13411,16 @@
         <v>333</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13088,19 +13428,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13108,19 +13448,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13128,19 +13468,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -13148,19 +13488,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>400</v>
-      </c>
       <c r="E24" s="22" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -13168,19 +13508,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -13188,19 +13528,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13208,19 +13548,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13228,19 +13568,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13248,19 +13588,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13268,19 +13608,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13288,19 +13628,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13308,19 +13648,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13328,19 +13668,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="E33" s="22" t="s">
         <v>312</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13348,19 +13688,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E34" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13368,19 +13708,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E35" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13388,19 +13728,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E36" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -13408,19 +13748,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13428,19 +13768,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E38" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -13448,19 +13788,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13468,19 +13808,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E40" s="22" t="s">
         <v>277</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -13488,19 +13828,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13508,19 +13848,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>277</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13528,19 +13868,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>277</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13548,19 +13888,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>277</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13568,19 +13908,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>277</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13588,19 +13928,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>277</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13608,19 +13948,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>277</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13628,19 +13968,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>277</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -13648,16 +13988,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13665,19 +14005,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>277</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/KSP Controller Design Data.xlsx
+++ b/Documentation/KSP Controller Design Data.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="493">
   <si>
     <t>M</t>
   </si>
@@ -888,9 +888,6 @@
   </si>
   <si>
     <t>Power</t>
-  </si>
-  <si>
-    <t>Reset</t>
   </si>
   <si>
     <t>#</t>
@@ -1485,6 +1482,96 @@
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>Data 1</t>
+  </si>
+  <si>
+    <t>Data 2</t>
+  </si>
+  <si>
+    <t>Data 3</t>
+  </si>
+  <si>
+    <t>Data 4</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>AP Power</t>
+  </si>
+  <si>
+    <t>AP Reset</t>
+  </si>
+  <si>
+    <t>AP Dim</t>
+  </si>
+  <si>
+    <t>Digital Byte 12</t>
+  </si>
+  <si>
+    <t>Digital Byte 13</t>
+  </si>
+  <si>
+    <t>Digital Byte 14</t>
+  </si>
+  <si>
+    <t>Digital Byte 15</t>
+  </si>
+  <si>
+    <t>Mux 5 Bank A</t>
+  </si>
+  <si>
+    <t>Mux 5 Bank B</t>
+  </si>
+  <si>
+    <t>Mux 6 Bank B</t>
+  </si>
+  <si>
+    <t>Mux 6 Bank A</t>
+  </si>
+  <si>
+    <t>AP Status</t>
+  </si>
+  <si>
+    <t>AP L Mode</t>
+  </si>
+  <si>
+    <t>AP V Mode</t>
+  </si>
+  <si>
+    <t>AP S Mode</t>
+  </si>
+  <si>
+    <t>AP L VAL H</t>
+  </si>
+  <si>
+    <t>AP L VAL L</t>
+  </si>
+  <si>
+    <t>AP V VAL H</t>
+  </si>
+  <si>
+    <t>AP V VAL L</t>
+  </si>
+  <si>
+    <t>AP S VAL H</t>
+  </si>
+  <si>
+    <t>AP S VAL L</t>
+  </si>
+  <si>
+    <t>High byte</t>
+  </si>
+  <si>
+    <t>Low byte</t>
+  </si>
+  <si>
+    <t>Power, State, L Conn, V Conn, S Conn</t>
   </si>
 </sst>
 </file>
@@ -1958,8 +2045,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148434064"/>
-        <c:axId val="148426616"/>
+        <c:axId val="373354032"/>
+        <c:axId val="373351680"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2042,11 +2129,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148430928"/>
-        <c:axId val="148430536"/>
+        <c:axId val="373352464"/>
+        <c:axId val="373349720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148434064"/>
+        <c:axId val="373354032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,12 +2190,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148426616"/>
+        <c:crossAx val="373351680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148426616"/>
+        <c:axId val="373351680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,12 +2252,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148434064"/>
+        <c:crossAx val="373354032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148430536"/>
+        <c:axId val="373349720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2213,12 +2300,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148430928"/>
+        <c:crossAx val="373352464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148430928"/>
+        <c:axId val="373352464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,7 +2315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148430536"/>
+        <c:crossAx val="373349720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2349,7 +2436,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5557,11 +5643,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211197432"/>
-        <c:axId val="211198608"/>
+        <c:axId val="373351288"/>
+        <c:axId val="373348544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211197432"/>
+        <c:axId val="373351288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5618,12 +5704,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211198608"/>
+        <c:crossAx val="373348544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211198608"/>
+        <c:axId val="373348544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5680,7 +5766,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211197432"/>
+        <c:crossAx val="373351288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5694,7 +5780,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8294,7 +8379,7 @@
         <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -8316,7 +8401,7 @@
         <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -8383,8 +8468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="I31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8445,10 +8530,10 @@
         <v>4</v>
       </c>
       <c r="U2" t="s">
+        <v>461</v>
+      </c>
+      <c r="V2" t="s">
         <v>462</v>
-      </c>
-      <c r="V2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8554,10 +8639,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>268</v>
+        <v>257</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>256</v>
       </c>
       <c r="F5" t="s">
         <v>149</v>
@@ -8600,10 +8685,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>178</v>
+        <v>257</v>
+      </c>
+      <c r="C6" t="s">
+        <v>470</v>
       </c>
       <c r="F6" t="s">
         <v>150</v>
@@ -8618,7 +8703,7 @@
         <v>150</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>194</v>
@@ -8646,10 +8731,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>223</v>
+        <v>257</v>
+      </c>
+      <c r="C7" t="s">
+        <v>469</v>
       </c>
       <c r="F7" t="s">
         <v>151</v>
@@ -8694,8 +8779,8 @@
       <c r="B8" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>256</v>
+      <c r="C8" t="s">
+        <v>471</v>
       </c>
       <c r="F8" t="s">
         <v>152</v>
@@ -8741,10 +8826,10 @@
         <v>257</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F9" t="s">
         <v>153</v>
@@ -8786,6 +8871,12 @@
       <c r="A10">
         <v>7</v>
       </c>
+      <c r="B10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" t="s">
+        <v>331</v>
+      </c>
       <c r="F10" t="s">
         <v>154</v>
       </c>
@@ -8900,7 +8991,7 @@
         <v>200</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O12" s="15" t="s">
         <v>135</v>
@@ -8924,17 +9015,11 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>269</v>
-      </c>
       <c r="F13" t="s">
         <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K13" t="s">
         <v>261</v>
@@ -8946,7 +9031,7 @@
         <v>201</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O13" s="15" t="s">
         <v>132</v>
@@ -8970,11 +9055,17 @@
       <c r="A14">
         <v>11</v>
       </c>
+      <c r="B14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>223</v>
+      </c>
       <c r="F14" t="s">
         <v>158</v>
       </c>
       <c r="G14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K14" t="s">
         <v>262</v>
@@ -8983,10 +9074,10 @@
         <v>236</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O14" s="15" t="s">
         <v>219</v>
@@ -9010,11 +9101,17 @@
       <c r="A15">
         <v>12</v>
       </c>
+      <c r="B15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>178</v>
+      </c>
       <c r="F15" t="s">
         <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K15" t="s">
         <v>263</v>
@@ -9026,7 +9123,7 @@
         <v>176</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O15" s="15" t="s">
         <v>133</v>
@@ -9050,11 +9147,17 @@
       <c r="A16">
         <v>13</v>
       </c>
+      <c r="B16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>268</v>
+      </c>
       <c r="F16" t="s">
         <v>160</v>
       </c>
       <c r="G16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K16" t="s">
         <v>264</v>
@@ -9066,7 +9169,7 @@
         <v>175</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O16" s="15" t="s">
         <v>134</v>
@@ -9090,11 +9193,17 @@
       <c r="A17">
         <v>14</v>
       </c>
+      <c r="B17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" t="s">
+        <v>468</v>
+      </c>
       <c r="F17" t="s">
         <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K17" t="s">
         <v>265</v>
@@ -9106,7 +9215,7 @@
         <v>174</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O17" s="15" t="s">
         <v>56</v>
@@ -9130,11 +9239,17 @@
       <c r="A18">
         <v>15</v>
       </c>
+      <c r="B18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" t="s">
+        <v>467</v>
+      </c>
       <c r="F18" t="s">
         <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K18" t="s">
         <v>258</v>
@@ -9167,6 +9282,12 @@
       <c r="A19">
         <v>16</v>
       </c>
+      <c r="B19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" t="s">
+        <v>466</v>
+      </c>
       <c r="T19">
         <v>16</v>
       </c>
@@ -9183,6 +9304,12 @@
       <c r="A20">
         <v>17</v>
       </c>
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" t="s">
+        <v>465</v>
+      </c>
       <c r="T20">
         <v>17</v>
       </c>
@@ -9199,6 +9326,12 @@
       <c r="A21">
         <v>18</v>
       </c>
+      <c r="B21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" t="s">
+        <v>464</v>
+      </c>
       <c r="T21">
         <v>18</v>
       </c>
@@ -9215,23 +9348,29 @@
       <c r="A22">
         <v>19</v>
       </c>
+      <c r="B22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" t="s">
+        <v>463</v>
+      </c>
       <c r="L22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M22" t="s">
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q22" t="s">
+        <v>326</v>
+      </c>
+      <c r="R22" t="s">
         <v>327</v>
-      </c>
-      <c r="R22" t="s">
-        <v>328</v>
       </c>
       <c r="T22">
         <v>19</v>
@@ -9347,7 +9486,7 @@
         <v>179</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M25">
         <v>158</v>
@@ -9404,10 +9543,10 @@
         <v>179</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N27">
         <f>(N24-N23)/(M24-M23)</f>
@@ -9440,7 +9579,7 @@
         <v>224</v>
       </c>
       <c r="L28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N28">
         <f>(O24-O23)/(M24-M23)</f>
@@ -9492,7 +9631,7 @@
         <v>179</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N30">
         <v>137</v>
@@ -9547,7 +9686,7 @@
         <v>179</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T32">
         <v>29</v>
@@ -9594,22 +9733,22 @@
         <v>225</v>
       </c>
       <c r="L34" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="M34" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="M34" s="34" t="s">
-        <v>429</v>
-      </c>
       <c r="N34" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="O34" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="O34" s="33" t="s">
+      <c r="P34" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="P34" s="34" t="s">
-        <v>429</v>
-      </c>
       <c r="Q34" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="T34">
         <v>31</v>
@@ -9637,19 +9776,19 @@
         <v>0</v>
       </c>
       <c r="M35" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N35" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="O35" s="30">
-        <v>13</v>
-      </c>
-      <c r="P35" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q35" s="32" t="s">
-        <v>424</v>
+        <v>354</v>
+      </c>
+      <c r="O35" s="24">
+        <v>20</v>
+      </c>
+      <c r="P35" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q35" s="25" t="s">
+        <v>164</v>
       </c>
       <c r="T35">
         <v>32</v>
@@ -9671,25 +9810,25 @@
         <v>179</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L36" s="24">
         <v>1</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N36" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O36" s="24">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P36" s="23" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q36" s="25" t="s">
-        <v>425</v>
+        <v>165</v>
       </c>
       <c r="T36">
         <v>33</v>
@@ -9717,19 +9856,19 @@
         <v>2</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N37" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O37" s="24">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="P37" s="23" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q37" s="25" t="s">
-        <v>426</v>
+        <v>166</v>
       </c>
       <c r="T37">
         <v>34</v>
@@ -9751,25 +9890,25 @@
         <v>179</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L38" s="24">
         <v>3</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N38" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O38" s="24">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P38" s="23" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q38" s="25" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="T38">
         <v>35</v>
@@ -9797,19 +9936,19 @@
         <v>4</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N39" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O39" s="24">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P39" s="23" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q39" s="25" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="T39">
         <v>36</v>
@@ -9831,25 +9970,25 @@
         <v>179</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L40" s="24">
         <v>5</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N40" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O40" s="24">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="P40" s="23" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q40" s="25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="T40">
         <v>37</v>
@@ -9877,19 +10016,19 @@
         <v>6</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N41" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O41" s="24">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P41" s="23" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q41" s="25" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="T41">
         <v>38</v>
@@ -9911,26 +10050,24 @@
         <v>179</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L42" s="24">
         <v>7</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N42" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O42" s="24">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P42" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q42" s="25" t="s">
-        <v>168</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="Q42" s="25"/>
       <c r="T42">
         <v>39</v>
       </c>
@@ -9957,20 +10094,18 @@
         <v>8</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N43" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O43" s="24">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P43" s="23" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q43" s="25" t="s">
-        <v>169</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="Q43" s="25"/>
       <c r="T43">
         <v>40</v>
       </c>
@@ -9983,7 +10118,7 @@
         <v>-0.60784313725490191</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44">
         <v>41</v>
       </c>
@@ -9991,25 +10126,25 @@
         <v>179</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L44" s="24">
         <v>9</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N44" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O44" s="24">
-        <v>22</v>
-      </c>
-      <c r="P44" s="23" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q44" s="25" t="s">
-        <v>61</v>
+        <v>29</v>
+      </c>
+      <c r="P44" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q44" s="29" t="s">
+        <v>492</v>
       </c>
       <c r="T44">
         <v>41</v>
@@ -10037,16 +10172,16 @@
         <v>10</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N45" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O45" s="24">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P45" s="23" t="s">
-        <v>337</v>
+        <v>481</v>
       </c>
       <c r="Q45" s="25"/>
       <c r="T45">
@@ -10069,22 +10204,22 @@
         <v>179</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L46" s="24">
         <v>11</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N46" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O46" s="24">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="P46" s="23" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="Q46" s="25"/>
       <c r="T46">
@@ -10113,14 +10248,18 @@
         <v>12</v>
       </c>
       <c r="M47" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N47" s="29" t="s">
-        <v>448</v>
-      </c>
-      <c r="O47" s="27"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="29"/>
+        <v>447</v>
+      </c>
+      <c r="O47" s="24">
+        <v>32</v>
+      </c>
+      <c r="P47" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q47" s="25"/>
       <c r="T47">
         <v>44</v>
       </c>
@@ -10133,7 +10272,7 @@
         <v>-0.56862745098039214</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A48">
         <v>45</v>
       </c>
@@ -10142,6 +10281,24 @@
       </c>
       <c r="C48" s="15" t="s">
         <v>210</v>
+      </c>
+      <c r="L48" s="30">
+        <v>13</v>
+      </c>
+      <c r="M48" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="N48" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="O48" s="24">
+        <v>33</v>
+      </c>
+      <c r="P48" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q48" s="25" t="s">
+        <v>490</v>
       </c>
       <c r="T48">
         <v>45</v>
@@ -10166,6 +10323,24 @@
         <v>249</v>
       </c>
       <c r="H49" s="19"/>
+      <c r="L49" s="24">
+        <v>14</v>
+      </c>
+      <c r="M49" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="N49" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="O49" s="24">
+        <v>34</v>
+      </c>
+      <c r="P49" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q49" s="25" t="s">
+        <v>491</v>
+      </c>
       <c r="T49">
         <v>46</v>
       </c>
@@ -10188,14 +10363,23 @@
       <c r="C50" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="L50" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="M50" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="N50" s="35" t="s">
-        <v>427</v>
+      <c r="L50" s="24">
+        <v>15</v>
+      </c>
+      <c r="M50" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="N50" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="O50" s="24">
+        <v>35</v>
+      </c>
+      <c r="P50" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q50" s="25" t="s">
+        <v>490</v>
       </c>
       <c r="T50">
         <v>47</v>
@@ -10209,7 +10393,7 @@
         <v>-0.53921568627450978</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A51">
         <v>48</v>
       </c>
@@ -10220,13 +10404,22 @@
         <v>250</v>
       </c>
       <c r="L51" s="24">
-        <v>0</v>
-      </c>
-      <c r="M51" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="N51" s="36" t="s">
-        <v>459</v>
+        <v>16</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="N51" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="O51" s="24">
+        <v>36</v>
+      </c>
+      <c r="P51" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q51" s="25" t="s">
+        <v>491</v>
       </c>
       <c r="T51">
         <v>48</v>
@@ -10251,13 +10444,22 @@
         <v>209</v>
       </c>
       <c r="L52" s="24">
-        <v>1</v>
-      </c>
-      <c r="M52" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="N52" s="25" t="s">
-        <v>460</v>
+        <v>17</v>
+      </c>
+      <c r="M52" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="N52" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="O52" s="24">
+        <v>37</v>
+      </c>
+      <c r="P52" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q52" s="25" t="s">
+        <v>490</v>
       </c>
       <c r="T52">
         <v>49</v>
@@ -10271,7 +10473,7 @@
         <v>-0.51960784313725494</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>50</v>
       </c>
@@ -10281,14 +10483,23 @@
       <c r="C53" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="L53" s="27">
-        <v>2</v>
-      </c>
-      <c r="M53" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="N53" s="29" t="s">
-        <v>461</v>
+      <c r="L53" s="24">
+        <v>18</v>
+      </c>
+      <c r="M53" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="N53" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="O53" s="24">
+        <v>38</v>
+      </c>
+      <c r="P53" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q53" s="25" t="s">
+        <v>490</v>
       </c>
       <c r="T53">
         <v>50</v>
@@ -10310,8 +10521,20 @@
         <v>179</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>290</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="L54" s="24">
+        <v>19</v>
+      </c>
+      <c r="M54" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="N54" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="O54" s="24"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="25"/>
       <c r="T54">
         <v>51</v>
       </c>
@@ -10346,7 +10569,7 @@
         <v>-0.49019607843137253</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A56">
         <v>53</v>
       </c>
@@ -10354,7 +10577,7 @@
         <v>179</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T56">
         <v>53</v>
@@ -10368,7 +10591,16 @@
         <v>-0.48039215686274495</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L57" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="M57" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="N57" s="35" t="s">
+        <v>426</v>
+      </c>
       <c r="T57">
         <v>54</v>
       </c>
@@ -10381,7 +10613,16 @@
         <v>-0.47058823529411753</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="L58" s="24">
+        <v>0</v>
+      </c>
+      <c r="M58" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="N58" s="36" t="s">
+        <v>458</v>
+      </c>
       <c r="T58">
         <v>55</v>
       </c>
@@ -10395,6 +10636,15 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="L59" s="24">
+        <v>1</v>
+      </c>
+      <c r="M59" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="N59" s="25" t="s">
+        <v>459</v>
+      </c>
       <c r="T59">
         <v>56</v>
       </c>
@@ -10407,7 +10657,16 @@
         <v>-0.4509803921568627</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L60" s="27">
+        <v>2</v>
+      </c>
+      <c r="M60" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="N60" s="29" t="s">
+        <v>460</v>
+      </c>
       <c r="T60">
         <v>57</v>
       </c>
@@ -13025,22 +13284,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>271</v>
-      </c>
       <c r="C1" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>272</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13048,19 +13307,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13068,19 +13327,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13088,19 +13347,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E4" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>277</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13108,19 +13367,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>297</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13128,19 +13387,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13148,19 +13407,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13168,19 +13427,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13188,19 +13447,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13208,19 +13467,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13228,19 +13487,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13248,19 +13507,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13268,19 +13527,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13288,19 +13547,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13308,19 +13567,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13328,19 +13587,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13348,19 +13607,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -13368,19 +13627,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>315</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="86.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13388,19 +13647,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13408,19 +13667,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13428,19 +13687,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13448,19 +13707,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13468,19 +13727,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -13488,19 +13747,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -13508,19 +13767,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -13528,19 +13787,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13548,19 +13807,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13568,19 +13827,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13588,19 +13847,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13608,19 +13867,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13628,19 +13887,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13648,19 +13907,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13668,19 +13927,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13688,19 +13947,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13708,19 +13967,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13728,19 +13987,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="F36" s="22" t="s">
         <v>371</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -13748,19 +14007,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13768,19 +14027,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -13788,19 +14047,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>376</v>
-      </c>
       <c r="E39" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13808,19 +14067,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -13828,19 +14087,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13848,19 +14107,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13868,19 +14127,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="F43" s="14" t="s">
         <v>396</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13888,19 +14147,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="F44" s="14" t="s">
         <v>398</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13908,19 +14167,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13928,19 +14187,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13948,19 +14207,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13968,19 +14227,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -13988,16 +14247,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -14005,19 +14264,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/KSP Controller Design Data.xlsx
+++ b/Documentation/KSP Controller Design Data.xlsx
@@ -1085,9 +1085,6 @@
     <t>D1</t>
   </si>
   <si>
-    <t>8-10</t>
-  </si>
-  <si>
     <t>D0</t>
   </si>
   <si>
@@ -1572,6 +1569,9 @@
   </si>
   <si>
     <t>Power, State, L Conn, V Conn, S Conn</t>
+  </si>
+  <si>
+    <t>8-9</t>
   </si>
 </sst>
 </file>
@@ -2045,8 +2045,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="373354032"/>
-        <c:axId val="373351680"/>
+        <c:axId val="374076064"/>
+        <c:axId val="374073712"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2129,11 +2129,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="373352464"/>
-        <c:axId val="373349720"/>
+        <c:axId val="374072144"/>
+        <c:axId val="374071752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="373354032"/>
+        <c:axId val="374076064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2190,12 +2190,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373351680"/>
+        <c:crossAx val="374073712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="373351680"/>
+        <c:axId val="374073712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2252,12 +2252,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373354032"/>
+        <c:crossAx val="374076064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="373349720"/>
+        <c:axId val="374071752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2300,12 +2300,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373352464"/>
+        <c:crossAx val="374072144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="373352464"/>
+        <c:axId val="374072144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2315,7 +2315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373349720"/>
+        <c:crossAx val="374071752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2436,6 +2436,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5643,11 +5644,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="373351288"/>
-        <c:axId val="373348544"/>
+        <c:axId val="374074104"/>
+        <c:axId val="374072536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="373351288"/>
+        <c:axId val="374074104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5704,12 +5705,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373348544"/>
+        <c:crossAx val="374072536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="373348544"/>
+        <c:axId val="374072536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5766,7 +5767,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373351288"/>
+        <c:crossAx val="374074104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5780,6 +5781,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8401,7 +8403,7 @@
         <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -8468,8 +8470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8530,10 +8532,10 @@
         <v>4</v>
       </c>
       <c r="U2" t="s">
+        <v>460</v>
+      </c>
+      <c r="V2" t="s">
         <v>461</v>
-      </c>
-      <c r="V2" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -8688,7 +8690,7 @@
         <v>257</v>
       </c>
       <c r="C6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F6" t="s">
         <v>150</v>
@@ -8734,7 +8736,7 @@
         <v>257</v>
       </c>
       <c r="C7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F7" t="s">
         <v>151</v>
@@ -8780,7 +8782,7 @@
         <v>257</v>
       </c>
       <c r="C8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F8" t="s">
         <v>152</v>
@@ -9074,7 +9076,7 @@
         <v>236</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>292</v>
@@ -9197,7 +9199,7 @@
         <v>172</v>
       </c>
       <c r="C17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F17" t="s">
         <v>161</v>
@@ -9243,7 +9245,7 @@
         <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F18" t="s">
         <v>162</v>
@@ -9286,7 +9288,7 @@
         <v>172</v>
       </c>
       <c r="C19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="T19">
         <v>16</v>
@@ -9308,7 +9310,7 @@
         <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="T20">
         <v>17</v>
@@ -9330,7 +9332,7 @@
         <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="T21">
         <v>18</v>
@@ -9352,7 +9354,7 @@
         <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L22" t="s">
         <v>323</v>
@@ -9733,22 +9735,22 @@
         <v>225</v>
       </c>
       <c r="L34" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="M34" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="M34" s="34" t="s">
-        <v>428</v>
-      </c>
       <c r="N34" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="O34" s="33" t="s">
         <v>426</v>
       </c>
-      <c r="O34" s="33" t="s">
+      <c r="P34" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="P34" s="34" t="s">
-        <v>428</v>
-      </c>
       <c r="Q34" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T34">
         <v>31</v>
@@ -9779,13 +9781,13 @@
         <v>271</v>
       </c>
       <c r="N35" s="32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O35" s="24">
         <v>20</v>
       </c>
       <c r="P35" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q35" s="25" t="s">
         <v>164</v>
@@ -9816,16 +9818,16 @@
         <v>1</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N36" s="26" t="s">
-        <v>334</v>
+        <v>492</v>
       </c>
       <c r="O36" s="24">
         <v>21</v>
       </c>
       <c r="P36" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q36" s="25" t="s">
         <v>165</v>
@@ -9856,16 +9858,16 @@
         <v>2</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N37" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O37" s="24">
         <v>22</v>
       </c>
       <c r="P37" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Q37" s="25" t="s">
         <v>166</v>
@@ -9896,16 +9898,16 @@
         <v>3</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N38" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O38" s="24">
         <v>23</v>
       </c>
       <c r="P38" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Q38" s="25" t="s">
         <v>167</v>
@@ -9936,16 +9938,16 @@
         <v>4</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N39" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O39" s="24">
         <v>24</v>
       </c>
       <c r="P39" s="23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Q39" s="25" t="s">
         <v>168</v>
@@ -9976,16 +9978,16 @@
         <v>5</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N40" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O40" s="24">
         <v>25</v>
       </c>
       <c r="P40" s="23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q40" s="25" t="s">
         <v>169</v>
@@ -10016,16 +10018,16 @@
         <v>6</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N41" s="25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O41" s="24">
         <v>26</v>
       </c>
       <c r="P41" s="23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Q41" s="25" t="s">
         <v>61</v>
@@ -10056,16 +10058,16 @@
         <v>7</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N42" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O42" s="24">
         <v>27</v>
       </c>
       <c r="P42" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q42" s="25"/>
       <c r="T42">
@@ -10094,16 +10096,16 @@
         <v>8</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N43" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O43" s="24">
         <v>28</v>
       </c>
       <c r="P43" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Q43" s="25"/>
       <c r="T43">
@@ -10132,19 +10134,19 @@
         <v>9</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N44" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O44" s="24">
         <v>29</v>
       </c>
       <c r="P44" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q44" s="29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T44">
         <v>41</v>
@@ -10172,16 +10174,16 @@
         <v>10</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N45" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O45" s="24">
         <v>30</v>
       </c>
       <c r="P45" s="23" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q45" s="25"/>
       <c r="T45">
@@ -10210,16 +10212,16 @@
         <v>11</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N46" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O46" s="24">
         <v>31</v>
       </c>
       <c r="P46" s="23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q46" s="25"/>
       <c r="T46">
@@ -10248,16 +10250,16 @@
         <v>12</v>
       </c>
       <c r="M47" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N47" s="29" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O47" s="24">
         <v>32</v>
       </c>
       <c r="P47" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="T47">
@@ -10286,19 +10288,19 @@
         <v>13</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N48" s="29" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O48" s="24">
         <v>33</v>
       </c>
       <c r="P48" s="23" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q48" s="25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="T48">
         <v>45</v>
@@ -10327,19 +10329,19 @@
         <v>14</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N49" s="29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O49" s="24">
         <v>34</v>
       </c>
       <c r="P49" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q49" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="T49">
         <v>46</v>
@@ -10367,19 +10369,19 @@
         <v>15</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N50" s="29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O50" s="24">
         <v>35</v>
       </c>
       <c r="P50" s="23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q50" s="25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="T50">
         <v>47</v>
@@ -10407,19 +10409,19 @@
         <v>16</v>
       </c>
       <c r="M51" s="28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N51" s="29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O51" s="24">
         <v>36</v>
       </c>
       <c r="P51" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Q51" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="T51">
         <v>48</v>
@@ -10447,19 +10449,19 @@
         <v>17</v>
       </c>
       <c r="M52" s="31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N52" s="32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O52" s="24">
         <v>37</v>
       </c>
       <c r="P52" s="23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q52" s="25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="T52">
         <v>49</v>
@@ -10487,19 +10489,19 @@
         <v>18</v>
       </c>
       <c r="M53" s="23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N53" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O53" s="24">
         <v>38</v>
       </c>
       <c r="P53" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q53" s="25" t="s">
         <v>489</v>
-      </c>
-      <c r="Q53" s="25" t="s">
-        <v>490</v>
       </c>
       <c r="T53">
         <v>50</v>
@@ -10527,10 +10529,10 @@
         <v>19</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N54" s="25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O54" s="24"/>
       <c r="P54" s="23"/>
@@ -10593,13 +10595,13 @@
     </row>
     <row r="57" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="L57" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="M57" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="M57" s="34" t="s">
-        <v>428</v>
-      </c>
       <c r="N57" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T57">
         <v>54</v>
@@ -10618,10 +10620,10 @@
         <v>0</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N58" s="36" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="T58">
         <v>55</v>
@@ -10640,10 +10642,10 @@
         <v>1</v>
       </c>
       <c r="M59" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N59" s="25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="T59">
         <v>56</v>
@@ -10665,7 +10667,7 @@
         <v>333</v>
       </c>
       <c r="N60" s="29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T60">
         <v>57</v>
@@ -13290,7 +13292,7 @@
         <v>270</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
@@ -13310,16 +13312,16 @@
         <v>273</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13327,13 +13329,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>276</v>
@@ -13350,10 +13352,10 @@
         <v>274</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>276</v>
@@ -13370,10 +13372,10 @@
         <v>296</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>276</v>
@@ -13390,16 +13392,16 @@
         <v>298</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13410,16 +13412,16 @@
         <v>299</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13430,10 +13432,10 @@
         <v>300</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>311</v>
@@ -13450,10 +13452,10 @@
         <v>301</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>276</v>
@@ -13470,10 +13472,10 @@
         <v>302</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>276</v>
@@ -13490,10 +13492,10 @@
         <v>303</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>276</v>
@@ -13510,16 +13512,16 @@
         <v>304</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13530,10 +13532,10 @@
         <v>305</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>311</v>
@@ -13550,10 +13552,10 @@
         <v>306</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>311</v>
@@ -13570,16 +13572,16 @@
         <v>307</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>311</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13590,16 +13592,16 @@
         <v>308</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13610,10 +13612,10 @@
         <v>313</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>276</v>
@@ -13630,13 +13632,13 @@
         <v>314</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>315</v>
@@ -13650,16 +13652,16 @@
         <v>318</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13670,16 +13672,16 @@
         <v>332</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13687,19 +13689,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13707,19 +13709,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13727,19 +13729,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -13747,19 +13749,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -13767,19 +13769,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -13787,19 +13789,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13807,19 +13809,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13827,19 +13829,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13847,19 +13849,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13867,19 +13869,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13887,19 +13889,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13907,19 +13909,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13927,19 +13929,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E33" s="22" t="s">
         <v>311</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13947,19 +13949,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E34" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13967,19 +13969,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E35" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -13987,19 +13989,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E36" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -14007,19 +14009,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -14027,19 +14029,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E38" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -14047,19 +14049,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>375</v>
-      </c>
       <c r="E39" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -14067,19 +14069,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E40" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -14087,19 +14089,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -14107,19 +14109,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>276</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -14127,19 +14129,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>276</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -14147,19 +14149,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>276</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -14167,19 +14169,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>276</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -14187,19 +14189,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>276</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -14207,19 +14209,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>276</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -14227,19 +14229,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>276</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -14247,16 +14249,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -14264,19 +14266,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>276</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
